--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,61 +1523,61 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利10月26日被沪股通减持7.3万股</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1239499349.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
+          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-27 22:28</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1239494770.html</t>
+          <t>/news,603596,1240001005.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
+          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,61 +1661,61 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 07:39</t>
+          <t>10-27 18:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1238966891.html</t>
+          <t>/news,603596,1239920455.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
+          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 14:02</t>
+          <t>10-27 17:12</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1238728215.html</t>
+          <t>/news,603596,1239888681.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利10月24日获沪股通增持35.72万股</t>
+          <t>伯特利10月26日被沪股通减持7.3万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1238447804.html</t>
+          <t>/news,603596,1239499349.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
+          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 07:36</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1238445170.html</t>
+          <t>/news,603596,1239494770.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
+          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,83 +1789,83 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-26 07:39</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1238266128.html</t>
+          <t>/news,603596,1238966891.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
+          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-24 14:39</t>
+          <t>10-25 14:02</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1238244007.html</t>
+          <t>/news,603596,1238728215.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
+          <t>伯特利10月24日获沪股通增持35.72万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1237860438.html</t>
+          <t>/news,603596,1238447804.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利10月21日获沪股通增持57.88万股</t>
+          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 07:36</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1237797695.html</t>
+          <t>/news,603596,1238445170.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,125 +1907,125 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
+          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-21 16:00</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1237692419.html</t>
+          <t>/news,603596,1238266128.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
+          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-21 11:26</t>
+          <t>10-24 14:39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1237534531.html</t>
+          <t>/news,603596,1238244007.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
+          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-21 10:37</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1237486030.html</t>
+          <t>/news,603596,1237860438.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利10月21日获沪股通增持57.88万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-21 10:30</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1237477318.html</t>
+          <t>/news,603596,1237797695.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,71 +2035,71 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-21 09:03</t>
+          <t>10-21 16:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1237360990.html</t>
+          <t>/news,603596,1237692419.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-21 08:51</t>
+          <t>10-21 11:26</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1237356595.html</t>
+          <t>/news,603596,1237534531.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利10月20日被沪股通减持73.65万股</t>
+          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-21 10:37</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1237348896.html</t>
+          <t>/news,603596,1237486030.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价93元</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-20 15:31</t>
+          <t>10-21 10:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1237204717.html</t>
+          <t>/news,603596,1237477318.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>国信证券维持伯特利买入评级 目标价100~113元</t>
+          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-20 13:21</t>
+          <t>10-21 09:03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1237104101.html</t>
+          <t>/news,603596,1237360990.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长44.89%</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-20 13:18</t>
+          <t>10-21 08:51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1237100702.html</t>
+          <t>/news,603596,1237356595.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>伯特利10月20日被沪股通减持73.65万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-20 13:12</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1237094875.html</t>
+          <t>/news,603596,1237348896.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>中信证券维持伯特利买入评级 目标价93元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-20 10:30</t>
+          <t>10-20 15:31</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1237006976.html</t>
+          <t>/news,603596,1237204717.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级，电子电控产品拉高毛利率，三季度业绩略超预期</t>
+          <t>国信证券维持伯特利买入评级 目标价100~113元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-20 09:41</t>
+          <t>10-20 13:21</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1236939421.html</t>
+          <t>/news,603596,1237104101.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长35.57%</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长44.89%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-20 09:34</t>
+          <t>10-20 13:18</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1236922916.html</t>
+          <t>/news,603596,1237100702.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级，业绩预告超预期，市场开拓顺利</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-20 09:05</t>
+          <t>10-20 13:12</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1236899738.html</t>
+          <t>/news,603596,1237094875.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,54 +2387,54 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级 2022年三季报业绩预增点评：Q3业绩略超预期 线控底盘加速落地</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-20 08:50</t>
+          <t>10-20 10:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1236896496.html</t>
+          <t>/news,603596,1237006976.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国金证券维持伯特利增持评级 预计2022年净利润同比增长33.19%</t>
+          <t>信达证券给予伯特利买入评级，电子电控产品拉高毛利率，三季度业绩略超预期</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-20 08:49</t>
+          <t>10-20 09:41</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1236895963.html</t>
+          <t>/news,603596,1236939421.html</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长35.57%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-20 08:36</t>
+          <t>10-20 09:34</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1236894004.html</t>
+          <t>/news,603596,1236922916.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级</t>
+          <t>国金证券给予伯特利增持评级，业绩预告超预期，市场开拓顺利</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 22:19</t>
+          <t>10-20 09:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1236830289.html</t>
+          <t>/news,603596,1236899738.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>开源证券给予伯特利买入评级</t>
+          <t>民生证券给予伯特利推荐评级 2022年三季报业绩预增点评：Q3业绩略超预期 线控底盘加速落地</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 22:19</t>
+          <t>10-20 08:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1236830283.html</t>
+          <t>/news,603596,1236896496.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>开源证券维持伯特利买入(Buy)评级 预计2022年净利润同比增长42.51%</t>
+          <t>国金证券维持伯特利增持评级 预计2022年净利润同比增长33.19%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-19 22:07</t>
+          <t>10-20 08:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1236827263.html</t>
+          <t>/news,603596,1236895963.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-19 22:04</t>
+          <t>10-20 08:36</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1236826324.html</t>
+          <t>/news,603596,1236894004.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比预增26.68%到35.53%</t>
+          <t>华西证券给予伯特利买入评级</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 16:31</t>
+          <t>10-19 22:19</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1236749331.html</t>
+          <t>/news,603596,1236830289.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>伯特利：预计2022年前三季度净利润为4.67亿元到5亿元</t>
+          <t>开源证券给予伯特利买入评级</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 16:24</t>
+          <t>10-19 22:19</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1236747832.html</t>
+          <t>/news,603596,1236830283.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>伯特利：前三季度净利同比预增26.68%-35.53%</t>
+          <t>开源证券维持伯特利买入(Buy)评级 预计2022年净利润同比增长42.51%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-19 16:19</t>
+          <t>10-19 22:07</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1236746625.html</t>
+          <t>/news,603596,1236827263.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利：预计22年前三季度归母净利润同比增长26.68%至35.53%</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 16:08</t>
+          <t>10-19 22:04</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1236744245.html</t>
+          <t>/news,603596,1236826324.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利10月18日获沪股通增持59.91万股</t>
+          <t>伯特利：前三季度归母净利润同比预增26.68%到35.53%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-19 07:52</t>
+          <t>10-19 16:31</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1236440184.html</t>
+          <t>/news,603596,1236749331.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>伯特利10月17日被沪股通减持20.21万股</t>
+          <t>伯特利：预计2022年前三季度净利润为4.67亿元到5亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-18 07:56</t>
+          <t>10-19 16:24</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1236043097.html</t>
+          <t>/news,603596,1236747832.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.31亿元，居汽车零部件板块第二</t>
+          <t>伯特利：前三季度净利同比预增26.68%-35.53%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-19 16:19</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1235576362.html</t>
+          <t>/news,603596,1236746625.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伯特利10月14日获沪股通增持10.23万股</t>
+          <t>伯特利：预计22年前三季度归母净利润同比增长26.68%至35.53%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>股友7E3228205x</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-15 08:02</t>
+          <t>10-19 16:08</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1235513045.html</t>
+          <t>/news,603596,1236744245.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伯特利10月13日被沪股通减持5.12万股</t>
+          <t>伯特利10月18日获沪股通增持59.91万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-14 07:55</t>
+          <t>10-19 07:52</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1235083120.html</t>
+          <t>/news,603596,1236440184.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
+          <t>伯特利10月17日被沪股通减持20.21万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-13 13:34</t>
+          <t>10-18 07:56</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1234833422.html</t>
+          <t>/news,603596,1236043097.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利10月12日获沪股通增持1.92万股</t>
+          <t>伯特利本周沪股通持股市值增加1.31亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-13 08:00</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1234647448.html</t>
+          <t>/news,603596,1235576362.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>东亚前海证券首次给予伯特利推荐评级 预计2022年净利润同比增长22.55%</t>
+          <t>伯特利10月14日获沪股通增持10.23万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-12 18:33</t>
+          <t>10-15 08:02</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1234535532.html</t>
+          <t>/news,603596,1235513045.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>注意！伯特利将于10月28日召开股东大会</t>
+          <t>伯特利10月13日被沪股通减持5.12万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-12 17:45</t>
+          <t>10-14 07:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1234527602.html</t>
+          <t>/news,603596,1235083120.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>88</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利10月26日被沪股通减持7.3万股</t>
+          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-27 22:28</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1239499349.html</t>
+          <t>/news,603596,1240001005.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
+          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,61 +1757,61 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-27 18:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1239494770.html</t>
+          <t>/news,603596,1239920455.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
+          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 07:39</t>
+          <t>10-27 17:12</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1238966891.html</t>
+          <t>/news,603596,1239888681.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
+          <t>伯特利10月26日被沪股通减持7.3万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 14:02</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1238728215.html</t>
+          <t>/news,603596,1239499349.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利10月24日获沪股通增持35.72万股</t>
+          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1238447804.html</t>
+          <t>/news,603596,1239494770.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
+          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 07:36</t>
+          <t>10-26 07:39</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1238445170.html</t>
+          <t>/news,603596,1238966891.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
+          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,93 +1917,93 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-25 14:02</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1238266128.html</t>
+          <t>/news,603596,1238728215.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
+          <t>伯特利10月24日获沪股通增持35.72万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-24 14:39</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1238244007.html</t>
+          <t>/news,603596,1238447804.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
+          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-25 07:36</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1237860438.html</t>
+          <t>/news,603596,1238445170.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利10月21日获沪股通增持57.88万股</t>
+          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1237797695.html</t>
+          <t>/news,603596,1238266128.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
+          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-21 16:00</t>
+          <t>10-24 14:39</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1237692419.html</t>
+          <t>/news,603596,1238244007.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
+          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-21 11:26</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1237534531.html</t>
+          <t>/news,603596,1237860438.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
+          <t>伯特利10月21日获沪股通增持57.88万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-21 10:37</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1237486030.html</t>
+          <t>/news,603596,1237797695.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-21 10:30</t>
+          <t>10-21 16:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1237477318.html</t>
+          <t>/news,603596,1237692419.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
+          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 09:03</t>
+          <t>10-21 11:26</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1237360990.html</t>
+          <t>/news,603596,1237534531.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-21 08:51</t>
+          <t>10-21 10:37</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1237356595.html</t>
+          <t>/news,603596,1237486030.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利10月20日被沪股通减持73.65万股</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-21 10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1237348896.html</t>
+          <t>/news,603596,1237477318.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价93元</t>
+          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-20 15:31</t>
+          <t>10-21 09:03</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1237204717.html</t>
+          <t>/news,603596,1237360990.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>国信证券维持伯特利买入评级 目标价100~113元</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-20 13:21</t>
+          <t>10-21 08:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1237104101.html</t>
+          <t>/news,603596,1237356595.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长44.89%</t>
+          <t>伯特利10月20日被沪股通减持73.65万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-20 13:18</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1237100702.html</t>
+          <t>/news,603596,1237348896.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>中信证券维持伯特利买入评级 目标价93元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-20 13:12</t>
+          <t>10-20 15:31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1237094875.html</t>
+          <t>/news,603596,1237204717.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>国信证券维持伯特利买入评级 目标价100~113元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,51 +2397,51 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-20 10:30</t>
+          <t>10-20 13:21</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1237006976.html</t>
+          <t>/news,603596,1237104101.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级，电子电控产品拉高毛利率，三季度业绩略超预期</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长44.89%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-20 09:41</t>
+          <t>10-20 13:18</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1236939421.html</t>
+          <t>/news,603596,1237100702.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长35.57%</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-20 09:34</t>
+          <t>10-20 13:12</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1236922916.html</t>
+          <t>/news,603596,1237094875.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级，业绩预告超预期，市场开拓顺利</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-20 09:05</t>
+          <t>10-20 10:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1236899738.html</t>
+          <t>/news,603596,1237006976.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级 2022年三季报业绩预增点评：Q3业绩略超预期 线控底盘加速落地</t>
+          <t>信达证券给予伯特利买入评级，电子电控产品拉高毛利率，三季度业绩略超预期</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-20 08:50</t>
+          <t>10-20 09:41</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1236896496.html</t>
+          <t>/news,603596,1236939421.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国金证券维持伯特利增持评级 预计2022年净利润同比增长33.19%</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长35.57%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 08:49</t>
+          <t>10-20 09:34</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1236895963.html</t>
+          <t>/news,603596,1236922916.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>国金证券给予伯特利增持评级，业绩预告超预期，市场开拓顺利</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 08:36</t>
+          <t>10-20 09:05</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1236894004.html</t>
+          <t>/news,603596,1236899738.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级</t>
+          <t>民生证券给予伯特利推荐评级 2022年三季报业绩预增点评：Q3业绩略超预期 线控底盘加速落地</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 22:19</t>
+          <t>10-20 08:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1236830289.html</t>
+          <t>/news,603596,1236896496.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>开源证券给予伯特利买入评级</t>
+          <t>国金证券维持伯特利增持评级 预计2022年净利润同比增长33.19%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 22:19</t>
+          <t>10-20 08:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1236830283.html</t>
+          <t>/news,603596,1236895963.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>开源证券维持伯特利买入(Buy)评级 预计2022年净利润同比增长42.51%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-19 22:07</t>
+          <t>10-20 08:36</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1236827263.html</t>
+          <t>/news,603596,1236894004.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>华西证券给予伯特利买入评级</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 22:04</t>
+          <t>10-19 22:19</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1236826324.html</t>
+          <t>/news,603596,1236830289.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比预增26.68%到35.53%</t>
+          <t>开源证券给予伯特利买入评级</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-19 16:31</t>
+          <t>10-19 22:19</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1236749331.html</t>
+          <t>/news,603596,1236830283.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>伯特利：预计2022年前三季度净利润为4.67亿元到5亿元</t>
+          <t>开源证券维持伯特利买入(Buy)评级 预计2022年净利润同比增长42.51%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-19 16:24</t>
+          <t>10-19 22:07</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1236747832.html</t>
+          <t>/news,603596,1236827263.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,61 +2803,61 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伯特利：前三季度净利同比预增26.68%-35.53%</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-19 16:19</t>
+          <t>10-19 22:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1236746625.html</t>
+          <t>/news,603596,1236826324.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伯特利：预计22年前三季度归母净利润同比增长26.68%至35.53%</t>
+          <t>伯特利：前三季度归母净利润同比预增26.68%到35.53%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-19 16:08</t>
+          <t>10-19 16:31</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1236744245.html</t>
+          <t>/news,603596,1236749331.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伯特利10月18日获沪股通增持59.91万股</t>
+          <t>伯特利：预计2022年前三季度净利润为4.67亿元到5亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-19 07:52</t>
+          <t>10-19 16:24</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1236440184.html</t>
+          <t>/news,603596,1236747832.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>伯特利10月17日被沪股通减持20.21万股</t>
+          <t>伯特利：前三季度净利同比预增26.68%-35.53%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-18 07:56</t>
+          <t>10-19 16:19</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1236043097.html</t>
+          <t>/news,603596,1236746625.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.31亿元，居汽车零部件板块第二</t>
+          <t>伯特利：预计22年前三季度归母净利润同比增长26.68%至35.53%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友7E3228205x</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-19 16:08</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1235576362.html</t>
+          <t>/news,603596,1236744245.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伯特利10月14日获沪股通增持10.23万股</t>
+          <t>伯特利10月18日获沪股通增持59.91万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-15 08:02</t>
+          <t>10-19 07:52</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1235513045.html</t>
+          <t>/news,603596,1236440184.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伯特利10月13日被沪股通减持5.12万股</t>
+          <t>伯特利10月17日被沪股通减持20.21万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-14 07:55</t>
+          <t>10-18 07:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1235083120.html</t>
+          <t>/news,603596,1236043097.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,71 +467,71 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,54 +1555,54 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利10月26日被沪股通减持7.3万股</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1239499349.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1239494770.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
+          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 07:39</t>
+          <t>10-27 22:28</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1238966891.html</t>
+          <t>/news,603596,1240001005.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
+          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 14:02</t>
+          <t>10-27 18:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1238728215.html</t>
+          <t>/news,603596,1239920455.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利10月24日获沪股通增持35.72万股</t>
+          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-27 17:12</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1238447804.html</t>
+          <t>/news,603596,1239888681.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
+          <t>伯特利10月26日被沪股通减持7.3万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 07:36</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1238445170.html</t>
+          <t>/news,603596,1239499349.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
+          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1238266128.html</t>
+          <t>/news,603596,1239494770.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,61 +2035,61 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
+          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 14:39</t>
+          <t>10-26 07:39</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1238244007.html</t>
+          <t>/news,603596,1238966891.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
+          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-25 14:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1237860438.html</t>
+          <t>/news,603596,1238728215.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利10月21日获沪股通增持57.88万股</t>
+          <t>伯特利10月24日获沪股通增持35.72万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1237797695.html</t>
+          <t>/news,603596,1238447804.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
+          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-21 16:00</t>
+          <t>10-25 07:36</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1237692419.html</t>
+          <t>/news,603596,1238445170.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
+          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 11:26</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1237534531.html</t>
+          <t>/news,603596,1238266128.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
+          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-21 10:37</t>
+          <t>10-24 14:39</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1237486030.html</t>
+          <t>/news,603596,1238244007.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-21 10:30</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1237477318.html</t>
+          <t>/news,603596,1237860438.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
+          <t>伯特利10月21日获沪股通增持57.88万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-21 09:03</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1237360990.html</t>
+          <t>/news,603596,1237797695.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-21 08:51</t>
+          <t>10-21 16:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1237356595.html</t>
+          <t>/news,603596,1237692419.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利10月20日被沪股通减持73.65万股</t>
+          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-21 11:26</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1237348896.html</t>
+          <t>/news,603596,1237534531.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价93元</t>
+          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-20 15:31</t>
+          <t>10-21 10:37</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1237204717.html</t>
+          <t>/news,603596,1237486030.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>国信证券维持伯特利买入评级 目标价100~113元</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-20 13:21</t>
+          <t>10-21 10:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1237104101.html</t>
+          <t>/news,603596,1237477318.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长44.89%</t>
+          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-20 13:18</t>
+          <t>10-21 09:03</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1237100702.html</t>
+          <t>/news,603596,1237360990.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,93 +2461,93 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-20 13:12</t>
+          <t>10-21 08:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1237094875.html</t>
+          <t>/news,603596,1237356595.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>伯特利10月20日被沪股通减持73.65万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-20 10:30</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1237006976.html</t>
+          <t>/news,603596,1237348896.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级，电子电控产品拉高毛利率，三季度业绩略超预期</t>
+          <t>中信证券维持伯特利买入评级 目标价93元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-20 09:41</t>
+          <t>10-20 15:31</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1236939421.html</t>
+          <t>/news,603596,1237204717.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长35.57%</t>
+          <t>国信证券维持伯特利买入评级 目标价100~113元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,93 +2557,93 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 09:34</t>
+          <t>10-20 13:21</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1236922916.html</t>
+          <t>/news,603596,1237104101.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级，业绩预告超预期，市场开拓顺利</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长44.89%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 09:05</t>
+          <t>10-20 13:18</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1236899738.html</t>
+          <t>/news,603596,1237100702.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级 2022年三季报业绩预增点评：Q3业绩略超预期 线控底盘加速落地</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-20 08:50</t>
+          <t>10-20 13:12</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1236896496.html</t>
+          <t>/news,603596,1237094875.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国金证券维持伯特利增持评级 预计2022年净利润同比增长33.19%</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-20 08:49</t>
+          <t>10-20 10:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1236895963.html</t>
+          <t>/news,603596,1237006976.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>信达证券给予伯特利买入评级，电子电控产品拉高毛利率，三季度业绩略超预期</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-20 08:36</t>
+          <t>10-20 09:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1236894004.html</t>
+          <t>/news,603596,1236939421.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长35.57%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 22:19</t>
+          <t>10-20 09:34</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1236830289.html</t>
+          <t>/news,603596,1236922916.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>开源证券给予伯特利买入评级</t>
+          <t>国金证券给予伯特利增持评级，业绩预告超预期，市场开拓顺利</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-19 22:19</t>
+          <t>10-20 09:05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1236830283.html</t>
+          <t>/news,603596,1236899738.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>开源证券维持伯特利买入(Buy)评级 预计2022年净利润同比增长42.51%</t>
+          <t>民生证券给予伯特利推荐评级 2022年三季报业绩预增点评：Q3业绩略超预期 线控底盘加速落地</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-19 22:07</t>
+          <t>10-20 08:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1236827263.html</t>
+          <t>/news,603596,1236896496.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>国金证券维持伯特利增持评级 预计2022年净利润同比增长33.19%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-19 22:04</t>
+          <t>10-20 08:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1236826324.html</t>
+          <t>/news,603596,1236895963.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比预增26.68%到35.53%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-19 16:31</t>
+          <t>10-20 08:36</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1236749331.html</t>
+          <t>/news,603596,1236894004.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伯特利：预计2022年前三季度净利润为4.67亿元到5亿元</t>
+          <t>华西证券给予伯特利买入评级</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-19 16:24</t>
+          <t>10-19 22:19</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1236747832.html</t>
+          <t>/news,603596,1236830289.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>伯特利：前三季度净利同比预增26.68%-35.53%</t>
+          <t>开源证券给予伯特利买入评级</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-19 16:19</t>
+          <t>10-19 22:19</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1236746625.html</t>
+          <t>/news,603596,1236830283.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利：预计22年前三季度归母净利润同比增长26.68%至35.53%</t>
+          <t>开源证券维持伯特利买入(Buy)评级 预计2022年净利润同比增长42.51%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-19 16:08</t>
+          <t>10-19 22:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1236744245.html</t>
+          <t>/news,603596,1236827263.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伯特利10月18日获沪股通增持59.91万股</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-19 07:52</t>
+          <t>10-19 22:04</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1236440184.html</t>
+          <t>/news,603596,1236826324.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伯特利10月17日被沪股通减持20.21万股</t>
+          <t>伯特利：前三季度归母净利润同比预增26.68%到35.53%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-18 07:56</t>
+          <t>10-19 16:31</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1236043097.html</t>
+          <t>/news,603596,1236749331.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,125 +467,125 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,61 +1715,61 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-27 22:28</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240001005.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利10月26日被沪股通减持7.3万股</t>
+          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-27 18:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1239499349.html</t>
+          <t>/news,603596,1239920455.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
+          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-27 17:12</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1239494770.html</t>
+          <t>/news,603596,1239888681.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
+          <t>伯特利10月26日被沪股通减持7.3万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 07:39</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1238966891.html</t>
+          <t>/news,603596,1239499349.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
+          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 14:02</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1238728215.html</t>
+          <t>/news,603596,1239494770.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利10月24日获沪股通增持35.72万股</t>
+          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-26 07:39</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1238447804.html</t>
+          <t>/news,603596,1238966891.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
+          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 07:36</t>
+          <t>10-25 14:02</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1238445170.html</t>
+          <t>/news,603596,1238728215.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
+          <t>伯特利10月24日获沪股通增持35.72万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1238266128.html</t>
+          <t>/news,603596,1238447804.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
+          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-24 14:39</t>
+          <t>10-25 07:36</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1238244007.html</t>
+          <t>/news,603596,1238445170.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,61 +2227,61 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
+          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1237860438.html</t>
+          <t>/news,603596,1238266128.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利10月21日获沪股通增持57.88万股</t>
+          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-24 14:39</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1237797695.html</t>
+          <t>/news,603596,1238244007.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
+          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-21 16:00</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1237692419.html</t>
+          <t>/news,603596,1237860438.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
+          <t>伯特利10月21日获沪股通增持57.88万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,93 +2333,93 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-21 11:26</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1237534531.html</t>
+          <t>/news,603596,1237797695.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-21 10:37</t>
+          <t>10-21 16:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1237486030.html</t>
+          <t>/news,603596,1237692419.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-21 10:30</t>
+          <t>10-21 11:26</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1237477318.html</t>
+          <t>/news,603596,1237534531.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
+          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-21 09:03</t>
+          <t>10-21 10:37</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1237360990.html</t>
+          <t>/news,603596,1237486030.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-21 08:51</t>
+          <t>10-21 10:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1237356595.html</t>
+          <t>/news,603596,1237477318.html</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利10月20日被沪股通减持73.65万股</t>
+          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-21 09:03</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1237348896.html</t>
+          <t>/news,603596,1237360990.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价93元</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-20 15:31</t>
+          <t>10-21 08:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1237204717.html</t>
+          <t>/news,603596,1237356595.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国信证券维持伯特利买入评级 目标价100~113元</t>
+          <t>伯特利10月20日被沪股通减持73.65万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 13:21</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1237104101.html</t>
+          <t>/news,603596,1237348896.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长44.89%</t>
+          <t>中信证券维持伯特利买入评级 目标价93元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 13:18</t>
+          <t>10-20 15:31</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1237100702.html</t>
+          <t>/news,603596,1237204717.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>国信证券维持伯特利买入评级 目标价100~113元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-20 13:12</t>
+          <t>10-20 13:21</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1237094875.html</t>
+          <t>/news,603596,1237104101.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长44.89%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,61 +2653,61 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-20 10:30</t>
+          <t>10-20 13:18</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1237006976.html</t>
+          <t>/news,603596,1237100702.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级，电子电控产品拉高毛利率，三季度业绩略超预期</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-20 09:41</t>
+          <t>10-20 13:12</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1236939421.html</t>
+          <t>/news,603596,1237094875.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长35.57%</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-20 09:34</t>
+          <t>10-20 10:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1236922916.html</t>
+          <t>/news,603596,1237006976.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级，业绩预告超预期，市场开拓顺利</t>
+          <t>信达证券给予伯特利买入评级，电子电控产品拉高毛利率，三季度业绩略超预期</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,115 +2749,115 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-20 09:05</t>
+          <t>10-20 09:41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1236899738.html</t>
+          <t>/news,603596,1236939421.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级 2022年三季报业绩预增点评：Q3业绩略超预期 线控底盘加速落地</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长35.57%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-20 08:50</t>
+          <t>10-20 09:34</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1236896496.html</t>
+          <t>/news,603596,1236922916.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>国金证券维持伯特利增持评级 预计2022年净利润同比增长33.19%</t>
+          <t>国金证券给予伯特利增持评级，业绩预告超预期，市场开拓顺利</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-20 08:49</t>
+          <t>10-20 09:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1236895963.html</t>
+          <t>/news,603596,1236899738.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>民生证券给予伯特利推荐评级 2022年三季报业绩预增点评：Q3业绩略超预期 线控底盘加速落地</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-20 08:36</t>
+          <t>10-20 08:50</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1236894004.html</t>
+          <t>/news,603596,1236896496.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,61 +2867,61 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级</t>
+          <t>国金证券维持伯特利增持评级 预计2022年净利润同比增长33.19%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-19 22:19</t>
+          <t>10-20 08:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1236830289.html</t>
+          <t>/news,603596,1236895963.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>开源证券给予伯特利买入评级</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-19 22:19</t>
+          <t>10-20 08:36</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1236830283.html</t>
+          <t>/news,603596,1236894004.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,86 +2931,86 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>开源证券维持伯特利买入(Buy)评级 预计2022年净利润同比增长42.51%</t>
+          <t>华西证券给予伯特利买入评级</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-19 22:07</t>
+          <t>10-19 22:19</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1236827263.html</t>
+          <t>/news,603596,1236830289.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>开源证券给予伯特利买入评级</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-19 22:04</t>
+          <t>10-19 22:19</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1236826324.html</t>
+          <t>/news,603596,1236830283.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比预增26.68%到35.53%</t>
+          <t>开源证券维持伯特利买入(Buy)评级 预计2022年净利润同比增长42.51%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-19 16:31</t>
+          <t>10-19 22:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1236749331.html</t>
+          <t>/news,603596,1236827263.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -745,7 +745,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -937,7 +937,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1033,7 +1033,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1097,7 +1097,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1385,7 +1385,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1993,7 +1993,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>504</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2825,7 +2825,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,71 +531,71 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利10月26日被沪股通减持7.3万股</t>
+          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-27 22:28</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1239499349.html</t>
+          <t>/news,603596,1240001005.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
+          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-27 18:48</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1239494770.html</t>
+          <t>/news,603596,1239920455.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
+          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 07:39</t>
+          <t>10-27 17:12</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1238966891.html</t>
+          <t>/news,603596,1239888681.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
+          <t>伯特利10月26日被沪股通减持7.3万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 14:02</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1238728215.html</t>
+          <t>/news,603596,1239499349.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伯特利10月24日获沪股通增持35.72万股</t>
+          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1238447804.html</t>
+          <t>/news,603596,1239494770.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
+          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 07:36</t>
+          <t>10-26 07:39</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1238445170.html</t>
+          <t>/news,603596,1238966891.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
+          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,93 +2237,93 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-25 14:02</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1238266128.html</t>
+          <t>/news,603596,1238728215.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
+          <t>伯特利10月24日获沪股通增持35.72万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-24 14:39</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1238244007.html</t>
+          <t>/news,603596,1238447804.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
+          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-25 07:36</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1237860438.html</t>
+          <t>/news,603596,1238445170.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利10月21日获沪股通增持57.88万股</t>
+          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1237797695.html</t>
+          <t>/news,603596,1238266128.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
+          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,61 +2365,61 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-21 16:00</t>
+          <t>10-24 14:39</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1237692419.html</t>
+          <t>/news,603596,1238244007.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
+          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-21 11:26</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1237534531.html</t>
+          <t>/news,603596,1237860438.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
+          <t>伯特利10月21日获沪股通增持57.88万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-21 10:37</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1237486030.html</t>
+          <t>/news,603596,1237797695.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-21 10:30</t>
+          <t>10-21 16:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1237477318.html</t>
+          <t>/news,603596,1237692419.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
+          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,51 +2493,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-21 09:03</t>
+          <t>10-21 11:26</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1237360990.html</t>
+          <t>/news,603596,1237534531.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-21 08:51</t>
+          <t>10-21 10:37</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1237356595.html</t>
+          <t>/news,603596,1237486030.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>伯特利10月20日被沪股通减持73.65万股</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-21 10:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1237348896.html</t>
+          <t>/news,603596,1237477318.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价93元</t>
+          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 15:31</t>
+          <t>10-21 09:03</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1237204717.html</t>
+          <t>/news,603596,1237360990.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国信证券维持伯特利买入评级 目标价100~113元</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-20 13:21</t>
+          <t>10-21 08:51</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1237104101.html</t>
+          <t>/news,603596,1237356595.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长44.89%</t>
+          <t>伯特利10月20日被沪股通减持73.65万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-20 13:18</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1237100702.html</t>
+          <t>/news,603596,1237348896.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>中信证券维持伯特利买入评级 目标价93元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-20 13:12</t>
+          <t>10-20 15:31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1237094875.html</t>
+          <t>/news,603596,1237204717.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>国信证券维持伯特利买入评级 目标价100~113元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-20 10:30</t>
+          <t>10-20 13:21</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1237006976.html</t>
+          <t>/news,603596,1237104101.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级，电子电控产品拉高毛利率，三季度业绩略超预期</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长44.89%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-20 09:41</t>
+          <t>10-20 13:18</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1236939421.html</t>
+          <t>/news,603596,1237100702.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长35.57%</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-20 09:34</t>
+          <t>10-20 13:12</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1236922916.html</t>
+          <t>/news,603596,1237094875.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级，业绩预告超预期，市场开拓顺利</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-20 09:05</t>
+          <t>10-20 10:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1236899738.html</t>
+          <t>/news,603596,1237006976.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级 2022年三季报业绩预增点评：Q3业绩略超预期 线控底盘加速落地</t>
+          <t>信达证券给予伯特利买入评级，电子电控产品拉高毛利率，三季度业绩略超预期</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-20 08:50</t>
+          <t>10-20 09:41</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1236896496.html</t>
+          <t>/news,603596,1236939421.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>国金证券维持伯特利增持评级 预计2022年净利润同比增长33.19%</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长35.57%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-20 08:49</t>
+          <t>10-20 09:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1236895963.html</t>
+          <t>/news,603596,1236922916.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>国金证券给予伯特利增持评级，业绩预告超预期，市场开拓顺利</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-20 08:36</t>
+          <t>10-20 09:05</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1236894004.html</t>
+          <t>/news,603596,1236899738.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级</t>
+          <t>民生证券给予伯特利推荐评级 2022年三季报业绩预增点评：Q3业绩略超预期 线控底盘加速落地</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-19 22:19</t>
+          <t>10-20 08:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1236830289.html</t>
+          <t>/news,603596,1236896496.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>开源证券给予伯特利买入评级</t>
+          <t>国金证券维持伯特利增持评级 预计2022年净利润同比增长33.19%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-19 22:19</t>
+          <t>10-20 08:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1236830283.html</t>
+          <t>/news,603596,1236895963.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>开源证券维持伯特利买入(Buy)评级 预计2022年净利润同比增长42.51%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-19 22:07</t>
+          <t>10-20 08:36</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1236827263.html</t>
+          <t>/news,603596,1236894004.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,71 +627,71 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利10月26日被沪股通减持7.3万股</t>
+          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-27 22:28</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1239499349.html</t>
+          <t>/news,603596,1240001005.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
+          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-27 18:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1239494770.html</t>
+          <t>/news,603596,1239920455.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
+          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 07:39</t>
+          <t>10-27 17:12</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1238966891.html</t>
+          <t>/news,603596,1239888681.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
+          <t>伯特利10月26日被沪股通减持7.3万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 14:02</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1238728215.html</t>
+          <t>/news,603596,1239499349.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利10月24日获沪股通增持35.72万股</t>
+          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1238447804.html</t>
+          <t>/news,603596,1239494770.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
+          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 07:36</t>
+          <t>10-26 07:39</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1238445170.html</t>
+          <t>/news,603596,1238966891.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
+          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,93 +2333,93 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-25 14:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1238266128.html</t>
+          <t>/news,603596,1238728215.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
+          <t>伯特利10月24日获沪股通增持35.72万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-24 14:39</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1238244007.html</t>
+          <t>/news,603596,1238447804.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
+          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-25 07:36</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1237860438.html</t>
+          <t>/news,603596,1238445170.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>伯特利10月21日获沪股通增持57.88万股</t>
+          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1237797695.html</t>
+          <t>/news,603596,1238266128.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
+          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-21 16:00</t>
+          <t>10-24 14:39</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1237692419.html</t>
+          <t>/news,603596,1238244007.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
+          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-21 11:26</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1237534531.html</t>
+          <t>/news,603596,1237860438.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
+          <t>伯特利10月21日获沪股通增持57.88万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-21 10:37</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1237486030.html</t>
+          <t>/news,603596,1237797695.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-21 10:30</t>
+          <t>10-21 16:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1237477318.html</t>
+          <t>/news,603596,1237692419.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
+          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-21 09:03</t>
+          <t>10-21 11:26</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1237360990.html</t>
+          <t>/news,603596,1237534531.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-21 08:51</t>
+          <t>10-21 10:37</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1237356595.html</t>
+          <t>/news,603596,1237486030.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>伯特利10月20日被沪股通减持73.65万股</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-21 10:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1237348896.html</t>
+          <t>/news,603596,1237477318.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价93元</t>
+          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-20 15:31</t>
+          <t>10-21 09:03</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1237204717.html</t>
+          <t>/news,603596,1237360990.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国信证券维持伯特利买入评级 目标价100~113元</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-20 13:21</t>
+          <t>10-21 08:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1237104101.html</t>
+          <t>/news,603596,1237356595.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长44.89%</t>
+          <t>伯特利10月20日被沪股通减持73.65万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-20 13:18</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1237100702.html</t>
+          <t>/news,603596,1237348896.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>中信证券维持伯特利买入评级 目标价93元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-20 13:12</t>
+          <t>10-20 15:31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1237094875.html</t>
+          <t>/news,603596,1237204717.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>国信证券维持伯特利买入评级 目标价100~113元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-20 10:30</t>
+          <t>10-20 13:21</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1237006976.html</t>
+          <t>/news,603596,1237104101.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级，电子电控产品拉高毛利率，三季度业绩略超预期</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长44.89%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-20 09:41</t>
+          <t>10-20 13:18</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1236939421.html</t>
+          <t>/news,603596,1237100702.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长35.57%</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-20 09:34</t>
+          <t>10-20 13:12</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1236922916.html</t>
+          <t>/news,603596,1237094875.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,22 +2899,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级，业绩预告超预期，市场开拓顺利</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-20 09:05</t>
+          <t>10-20 10:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1236899738.html</t>
+          <t>/news,603596,1237006976.html</t>
         </is>
       </c>
     </row>
@@ -2926,12 +2926,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级 2022年三季报业绩预增点评：Q3业绩略超预期 线控底盘加速落地</t>
+          <t>信达证券给予伯特利买入评级，电子电控产品拉高毛利率，三季度业绩略超预期</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-20 08:50</t>
+          <t>10-20 09:41</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1236896496.html</t>
+          <t>/news,603596,1236939421.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>国金证券维持伯特利增持评级 预计2022年净利润同比增长33.19%</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长35.57%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-20 08:49</t>
+          <t>10-20 09:34</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1236895963.html</t>
+          <t>/news,603596,1236922916.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>国金证券给予伯特利增持评级，业绩预告超预期，市场开拓顺利</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-20 08:36</t>
+          <t>10-20 09:05</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1236894004.html</t>
+          <t>/news,603596,1236899738.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,71 +723,71 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>895</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,71 +947,71 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,61 +1971,61 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,71 +2163,71 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利10月26日被沪股通减持7.3万股</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1239499349.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1239494770.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 07:39</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1238966891.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 14:02</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1238728215.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>伯特利10月24日获沪股通增持35.72万股</t>
+          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-27 22:28</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1238447804.html</t>
+          <t>/news,603596,1240001005.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
+          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,51 +2397,51 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 07:36</t>
+          <t>10-27 18:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1238445170.html</t>
+          <t>/news,603596,1239920455.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
+          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-27 17:12</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1238266128.html</t>
+          <t>/news,603596,1239888681.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
+          <t>伯特利10月26日被沪股通减持7.3万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-24 14:39</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1238244007.html</t>
+          <t>/news,603596,1239499349.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
+          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1237860438.html</t>
+          <t>/news,603596,1239494770.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伯特利10月21日获沪股通增持57.88万股</t>
+          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-26 07:39</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1237797695.html</t>
+          <t>/news,603596,1238966891.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
+          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-21 16:00</t>
+          <t>10-25 14:02</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1237692419.html</t>
+          <t>/news,603596,1238728215.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
+          <t>伯特利10月24日获沪股通增持35.72万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-21 11:26</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1237534531.html</t>
+          <t>/news,603596,1238447804.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
+          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-21 10:37</t>
+          <t>10-25 07:36</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1237486030.html</t>
+          <t>/news,603596,1238445170.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-21 10:30</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1237477318.html</t>
+          <t>/news,603596,1238266128.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
+          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-21 09:03</t>
+          <t>10-24 14:39</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1237360990.html</t>
+          <t>/news,603596,1238244007.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-21 08:51</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1237356595.html</t>
+          <t>/news,603596,1237860438.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利10月20日被沪股通减持73.65万股</t>
+          <t>伯特利10月21日获沪股通增持57.88万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1237348896.html</t>
+          <t>/news,603596,1237797695.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价93元</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-20 15:31</t>
+          <t>10-21 16:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1237204717.html</t>
+          <t>/news,603596,1237692419.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,61 +2803,61 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>国信证券维持伯特利买入评级 目标价100~113元</t>
+          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-20 13:21</t>
+          <t>10-21 11:26</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1237104101.html</t>
+          <t>/news,603596,1237534531.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长44.89%</t>
+          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-20 13:18</t>
+          <t>10-21 10:37</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1237100702.html</t>
+          <t>/news,603596,1237486030.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,83 +2877,83 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-20 13:12</t>
+          <t>10-21 10:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1237094875.html</t>
+          <t>/news,603596,1237477318.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-20 10:30</t>
+          <t>10-21 09:03</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1237006976.html</t>
+          <t>/news,603596,1237360990.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级，电子电控产品拉高毛利率，三季度业绩略超预期</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-20 09:41</t>
+          <t>10-21 08:51</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1236939421.html</t>
+          <t>/news,603596,1237356595.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长35.57%</t>
+          <t>伯特利10月20日被沪股通减持73.65万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-20 09:34</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1236922916.html</t>
+          <t>/news,603596,1237348896.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级，业绩预告超预期，市场开拓顺利</t>
+          <t>中信证券维持伯特利买入评级 目标价93元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-20 09:05</t>
+          <t>10-20 15:31</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1236899738.html</t>
+          <t>/news,603596,1237204717.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>931</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,71 +947,71 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,93 +1053,93 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,61 +2387,61 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>伯特利10月26日被沪股通减持7.3万股</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1239499349.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
+          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-27 22:28</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1239494770.html</t>
+          <t>/news,603596,1240001005.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
+          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 07:39</t>
+          <t>10-27 18:48</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1238966891.html</t>
+          <t>/news,603596,1239920455.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
+          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 14:02</t>
+          <t>10-27 17:12</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1238728215.html</t>
+          <t>/news,603596,1239888681.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伯特利10月24日获沪股通增持35.72万股</t>
+          <t>伯特利10月26日被沪股通减持7.3万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1238447804.html</t>
+          <t>/news,603596,1239499349.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
+          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 07:36</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1238445170.html</t>
+          <t>/news,603596,1239494770.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
+          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,83 +2653,83 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-26 07:39</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1238266128.html</t>
+          <t>/news,603596,1238966891.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
+          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-24 14:39</t>
+          <t>10-25 14:02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1238244007.html</t>
+          <t>/news,603596,1238728215.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
+          <t>伯特利10月24日获沪股通增持35.72万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1237860438.html</t>
+          <t>/news,603596,1238447804.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利10月21日获沪股通增持57.88万股</t>
+          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 07:36</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1237797695.html</t>
+          <t>/news,603596,1238445170.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,125 +2771,125 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
+          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-21 16:00</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1237692419.html</t>
+          <t>/news,603596,1238266128.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
+          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-21 11:26</t>
+          <t>10-24 14:39</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1237534531.html</t>
+          <t>/news,603596,1238244007.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
+          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-21 10:37</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1237486030.html</t>
+          <t>/news,603596,1237860438.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利10月21日获沪股通增持57.88万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-21 10:30</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1237477318.html</t>
+          <t>/news,603596,1237797695.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,71 +2899,71 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级 业绩预告超预期 盈利能力有望持续提升</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-21 09:03</t>
+          <t>10-21 16:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1237360990.html</t>
+          <t>/news,603596,1237692419.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-21 08:51</t>
+          <t>10-21 11:26</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1237356595.html</t>
+          <t>/news,603596,1237534531.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伯特利10月20日被沪股通减持73.65万股</t>
+          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-21 10:37</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1237348896.html</t>
+          <t>/news,603596,1237486030.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价93元</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-20 15:31</t>
+          <t>10-21 10:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1237204717.html</t>
+          <t>/news,603596,1237477318.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>647</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>941</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,125 +1075,125 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,61 +2323,61 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-27 22:28</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240001005.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伯特利10月26日被沪股通减持7.3万股</t>
+          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-27 18:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1239499349.html</t>
+          <t>/news,603596,1239920455.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
+          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-27 17:12</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1239494770.html</t>
+          <t>/news,603596,1239888681.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
+          <t>伯特利10月26日被沪股通减持7.3万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 07:39</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1238966891.html</t>
+          <t>/news,603596,1239499349.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
+          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 14:02</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1238728215.html</t>
+          <t>/news,603596,1239494770.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利10月24日获沪股通增持35.72万股</t>
+          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-26 07:39</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1238447804.html</t>
+          <t>/news,603596,1238966891.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
+          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 07:36</t>
+          <t>10-25 14:02</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1238445170.html</t>
+          <t>/news,603596,1238728215.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
+          <t>伯特利10月24日获沪股通增持35.72万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1238266128.html</t>
+          <t>/news,603596,1238447804.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
+          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-24 14:39</t>
+          <t>10-25 07:36</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1238244007.html</t>
+          <t>/news,603596,1238445170.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,61 +2835,61 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
+          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1237860438.html</t>
+          <t>/news,603596,1238266128.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伯特利10月21日获沪股通增持57.88万股</t>
+          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-24 14:39</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1237797695.html</t>
+          <t>/news,603596,1238244007.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
+          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-21 16:00</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1237692419.html</t>
+          <t>/news,603596,1237860438.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
+          <t>伯特利10月21日获沪股通增持57.88万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,76 +2941,76 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-21 11:26</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1237534531.html</t>
+          <t>/news,603596,1237797695.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>东吴证券给予伯特利买入评级，2022年Q3业绩预告点评，业绩超预期</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-21 10:37</t>
+          <t>10-21 16:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1237486030.html</t>
+          <t>/news,603596,1237692419.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-21 10:30</t>
+          <t>10-21 11:26</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1237477318.html</t>
+          <t>/news,603596,1237534531.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,39 +691,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>704</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>965</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,71 +1139,71 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,93 +1245,93 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,61 +2579,61 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>伯特利10月26日被沪股通减持7.3万股</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1239499349.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
+          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-27 22:28</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1239494770.html</t>
+          <t>/news,603596,1240001005.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
+          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-26 07:39</t>
+          <t>10-27 18:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1238966891.html</t>
+          <t>/news,603596,1239920455.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
+          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 14:02</t>
+          <t>10-27 17:12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1238728215.html</t>
+          <t>/news,603596,1239888681.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>伯特利10月24日获沪股通增持35.72万股</t>
+          <t>伯特利10月26日被沪股通减持7.3万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1238447804.html</t>
+          <t>/news,603596,1239499349.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
+          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 07:36</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1238445170.html</t>
+          <t>/news,603596,1239494770.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
+          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,83 +2845,83 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-26 07:39</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1238266128.html</t>
+          <t>/news,603596,1238966891.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
+          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-24 14:39</t>
+          <t>10-25 14:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1238244007.html</t>
+          <t>/news,603596,1238728215.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加2239.31万元，居汽车零部件板块第八</t>
+          <t>伯特利10月24日获沪股通增持35.72万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1237860438.html</t>
+          <t>/news,603596,1238447804.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利10月21日获沪股通增持57.88万股</t>
+          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 07:36</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1237797695.html</t>
+          <t>/news,603596,1238445170.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长32.4%</t>
+          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-21 16:00</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1237692419.html</t>
+          <t>/news,603596,1238266128.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伯特利前三季度净利润预增27%-36% 新定点项目及量产项目增长较快</t>
+          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-21 11:26</t>
+          <t>10-24 14:39</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1237534531.html</t>
+          <t>/news,603596,1238244007.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>728</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>974</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,125 +1267,125 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,61 +2515,61 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-27 22:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240001005.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>伯特利10月26日被沪股通减持7.3万股</t>
+          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-27 18:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1239499349.html</t>
+          <t>/news,603596,1239920455.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
+          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-27 17:12</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1239494770.html</t>
+          <t>/news,603596,1239888681.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
+          <t>伯特利10月26日被沪股通减持7.3万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-26 07:39</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1238966891.html</t>
+          <t>/news,603596,1239499349.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
+          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 14:02</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1238728215.html</t>
+          <t>/news,603596,1239494770.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>伯特利10月24日获沪股通增持35.72万股</t>
+          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-26 07:39</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1238447804.html</t>
+          <t>/news,603596,1238966891.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
+          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 07:36</t>
+          <t>10-25 14:02</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1238445170.html</t>
+          <t>/news,603596,1238728215.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中邮证券给予伯特利推荐评级 三季报业绩超预期 收入结构持续改善</t>
+          <t>伯特利10月24日获沪股通增持35.72万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1238266128.html</t>
+          <t>/news,603596,1238447804.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中邮证券首次给予伯特利推荐评级 预计2022年净利润同比增长34.58%</t>
+          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-24 14:39</t>
+          <t>10-25 07:36</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1238244007.html</t>
+          <t>/news,603596,1238445170.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,39 +883,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>790</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>1064</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,71 +1331,71 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,93 +1437,93 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,61 +2771,61 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伯特利10月26日被沪股通减持7.3万股</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1239499349.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
+          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-27 22:28</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1239494770.html</t>
+          <t>/news,603596,1240001005.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入539.82万元，融资余额996.1万元（10-25）</t>
+          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-26 07:39</t>
+          <t>10-27 18:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1238966891.html</t>
+          <t>/news,603596,1239920455.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利：获得某著名全球汽车整车厂项目定点</t>
+          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 14:02</t>
+          <t>10-27 17:12</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1238728215.html</t>
+          <t>/news,603596,1239888681.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伯特利10月24日获沪股通增持35.72万股</t>
+          <t>伯特利10月26日被沪股通减持7.3万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1238447804.html</t>
+          <t>/news,603596,1239499349.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入456.29万元，融资余额456.29万元（10-24）</t>
+          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-25 07:36</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1238445170.html</t>
+          <t>/news,603596,1239494770.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1033,7 +1033,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>793</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1097,7 +1097,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1609,7 +1609,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1769,7 +1769,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>814</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,125 +1459,125 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,61 +2707,61 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-27 22:28</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240001005.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伯特利10月26日被沪股通减持7.3万股</t>
+          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-27 18:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1239499349.html</t>
+          <t>/news,603596,1239920455.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入802.22万元，融资余额1798.32万元（10-26）</t>
+          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-27 17:12</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1239494770.html</t>
+          <t>/news,603596,1239888681.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利11月21日被沪股通减持3.05万股</t>
+          <t>伯特利11月22日被沪股通减持60.02万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1249349789.html</t>
+          <t>/news,603596,1249875772.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
+          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 07:56</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1249349421.html</t>
+          <t>/news,603596,1249873035.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 18:38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1249737391.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>836</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,71 +1523,71 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>【图解季报】伯特利：2022年前三季度归母净利润同比增长29.7%，约为4.8亿元</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-27 22:28</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1240001005.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伯特利股东户数减少68户，户均持股325.61万元</t>
+          <t>伯特利10月27日获沪股通增持2.53万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-27 18:48</t>
+          <t>10-28 08:02</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1239920455.html</t>
+          <t>/news,603596,1240050154.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伯特利：2022年前三季度净利润同比增长29.7%</t>
+          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-27 17:12</t>
+          <t>10-28 07:35</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1239888681.html</t>
+          <t>/news,603596,1240045543.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利11月22日被沪股通减持60.02万股</t>
+          <t>伯特利11月23日被沪股通减持7.35万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1249875772.html</t>
+          <t>/news,603596,1250420265.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
+          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1249873035.html</t>
+          <t>/news,603596,1250417518.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
+          <t>伯特利11月22日被沪股通减持60.02万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 18:38</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1249737391.html</t>
+          <t>/news,603596,1249875772.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利11月21日被沪股通减持3.05万股</t>
+          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1249349789.html</t>
+          <t>/news,603596,1249873035.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
+          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 07:56</t>
+          <t>11-22 18:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1249349421.html</t>
+          <t>/news,603596,1249737391.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>845</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>628</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,125 +1619,125 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,61 +2867,61 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伯特利10月27日获沪股通增持2.53万股</t>
+          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 08:02</t>
+          <t>10-28 11:34</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1240050154.html</t>
+          <t>/news,603596,1240256636.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还87.75万元，融资余额1710.57万元（10-27）</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 07:35</t>
+          <t>10-28 11:05</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1240045543.html</t>
+          <t>/news,603596,1240229803.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>103</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利11月23日被沪股通减持7.35万股</t>
+          <t>伯特利11月24日获沪股通增持9.93万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1250420265.html</t>
+          <t>/news,603596,1250943652.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
+          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 07:38</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1250417518.html</t>
+          <t>/news,603596,1250942859.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利11月22日被沪股通减持60.02万股</t>
+          <t>伯特利11月23日被沪股通减持7.35万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1249875772.html</t>
+          <t>/news,603596,1250420265.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
+          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1249873035.html</t>
+          <t>/news,603596,1250417518.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
+          <t>伯特利11月22日被沪股通减持60.02万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 18:38</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1249737391.html</t>
+          <t>/news,603596,1249875772.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利11月21日被沪股通减持3.05万股</t>
+          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1249349789.html</t>
+          <t>/news,603596,1249873035.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>710</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
+          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 07:56</t>
+          <t>11-22 18:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1249349421.html</t>
+          <t>/news,603596,1249737391.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>846</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>626</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,125 +1683,125 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 13:01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1241008988.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-30 17:57</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1240732860.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1240714361.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1240713196.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>10-30 14:56</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1240710665.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1240707615.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>伯特利10月28日获沪股通增持19.96万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>10-29 07:47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1240599501.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-29 07:38</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1240598027.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-28 23:29</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1240574394.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>中信证券维持伯特利买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-28 21:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1240535760.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-28 20:32</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1240527759.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-28 20:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1240527156.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>民生证券给予伯特利推荐评级</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-28 19:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1240529146.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,61 +2931,61 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-28 17:34</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1240476931.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级：成长加速兑现 线控底盘布局时</t>
+          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 11:34</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1240256636.html</t>
+          <t>/news,603596,1240465001.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 11:05</t>
+          <t>10-28 14:48</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1240229803.html</t>
+          <t>/news,603596,1240407100.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利11月24日获沪股通增持9.93万股</t>
+          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1250943652.html</t>
+          <t>/news,603596,1254650595.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
+          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1250942859.html</t>
+          <t>/news,603596,1254643679.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利11月23日被沪股通减持7.35万股</t>
+          <t>伯特利12月02日获沪股通增持19.39万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>12-03 07:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1250420265.html</t>
+          <t>/news,603596,1254511494.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
+          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 07:38</t>
+          <t>12-03 07:41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1250417518.html</t>
+          <t>/news,603596,1254510898.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利11月22日被沪股通减持60.02万股</t>
+          <t>伯特利12月01日获沪股通增持24.23万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>12-02 07:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1249875772.html</t>
+          <t>/news,603596,1253913743.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
+          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>12-02 07:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1249873035.html</t>
+          <t>/news,603596,1253910654.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
+          <t>伯特利11月30日被沪股通减持3.51万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 18:38</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1249737391.html</t>
+          <t>/news,603596,1253302790.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利11月21日被沪股通减持3.05万股</t>
+          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>12-01 07:36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1249349789.html</t>
+          <t>/news,603596,1253299007.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
+          <t>伯特利11月29日被沪股通减持13.04万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-22 07:56</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1249349421.html</t>
+          <t>/news,603596,1252779085.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-30 07:37</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1252775894.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月28日被沪股通减持28.96万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-29 07:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1252212776.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1252211863.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-27 15:07</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1251590240.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利本周沪股通持股市值减少2373.44万元，</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1251584514.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利11月25日获沪股通增持31.76万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-26 07:58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1251435236.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1251431275.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利11月24日获沪股通增持9.93万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1250943652.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1250942859.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利11月23日被沪股通减持7.35万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1250420265.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-24 07:38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1250417518.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利11月22日被沪股通减持60.02万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1249875772.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1249873035.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>850</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-22 18:38</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1249737391.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,71 +1747,71 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>894</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,71 +2259,71 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>光大证券维持伯特利买入评级 目标价98.96元</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 13:01</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1241008988.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>财通证券维持伯特利增持评级 预计2022年净利润同比增长35.37%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-30 17:57</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1240732860.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>兴业证券维持伯特利审慎增持评级 预计2022年净利润同比增长46.67%</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1240714361.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入2509.77万元，居汽车零部件板块第十五</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1240713196.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国泰君安维持伯特利增持评级 目标价121.5元</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-30 14:56</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1240710665.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1479.48万元，居汽车零部件板块第九</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1240707615.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利10月28日获沪股通增持19.96万股</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-29 07:47</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1240599501.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入799.2万元，融资余额2509.77万元（10-28）</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-29 07:38</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1240598027.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>方正证券维持伯特利推荐评级 预计2022年净利润同比增长35.97%</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 23:29</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1240574394.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中信证券维持伯特利买入评级 目标价100元</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 21:05</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1240535760.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东吴证券维持伯特利买入评级 预计2022年净利润同比增长40.13%</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 20:32</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1240527759.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>民生证券维持伯特利推荐评级 预计2022年净利润同比增长18.72%</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 20:30</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1240527156.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>民生证券给予伯特利推荐评级</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 19:55</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1240529146.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>招商证券维持伯特利强烈推荐评级 预计2022年净利润同比增长39.73%</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 17:34</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1240476931.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中金公司维持伯特利跑赢行业评级 目标价106元</t>
+          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-31 15:38</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1240465001.html</t>
+          <t>/news,603596,1241137592.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伯特利：前三季度归母净利润同比涨29.7%</t>
+          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 14:48</t>
+          <t>10-31 15:32</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1240407100.html</t>
+          <t>/news,603596,1241136999.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
+          <t>伯特利12月05日获沪股通增持73.58万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1254650595.html</t>
+          <t>/news,603596,1255448508.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,61 +499,61 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
+          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1254643679.html</t>
+          <t>/news,603596,1255445822.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利12月02日获沪股通增持19.39万股</t>
+          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-03 07:46</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1254511494.html</t>
+          <t>/news,603596,1254650595.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
+          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-03 07:41</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1254510898.html</t>
+          <t>/news,603596,1254643679.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利12月01日获沪股通增持24.23万股</t>
+          <t>伯特利12月02日获沪股通增持19.39万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 07:52</t>
+          <t>12-03 07:46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1253913743.html</t>
+          <t>/news,603596,1254511494.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
+          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 07:34</t>
+          <t>12-03 07:41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1253910654.html</t>
+          <t>/news,603596,1254510898.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利11月30日被沪股通减持3.51万股</t>
+          <t>伯特利12月01日获沪股通增持24.23万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-02 07:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1253302790.html</t>
+          <t>/news,603596,1253913743.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
+          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-01 07:36</t>
+          <t>12-02 07:34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1253299007.html</t>
+          <t>/news,603596,1253910654.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利11月29日被沪股通减持13.04万股</t>
+          <t>伯特利11月30日被沪股通减持3.51万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1252779085.html</t>
+          <t>/news,603596,1253302790.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
+          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-30 07:37</t>
+          <t>12-01 07:36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1252775894.html</t>
+          <t>/news,603596,1253299007.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利11月28日被沪股通减持28.96万股</t>
+          <t>伯特利11月29日被沪股通减持13.04万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-29 07:49</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1252212776.html</t>
+          <t>/news,603596,1252779085.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
+          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1252211863.html</t>
+          <t>/news,603596,1252775894.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,61 +851,61 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
+          <t>伯特利11月28日被沪股通减持28.96万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-27 15:07</t>
+          <t>11-29 07:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1251590240.html</t>
+          <t>/news,603596,1252212776.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少2373.44万元，</t>
+          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1251584514.html</t>
+          <t>/news,603596,1252211863.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利11月25日获沪股通增持31.76万股</t>
+          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-26 07:58</t>
+          <t>11-27 15:07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1251435236.html</t>
+          <t>/news,603596,1251590240.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
+          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1251431275.html</t>
+          <t>/news,603596,1251584514.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利11月24日获沪股通增持9.93万股</t>
+          <t>伯特利11月25日获沪股通增持31.76万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-26 07:58</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1250943652.html</t>
+          <t>/news,603596,1251435236.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
+          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1250942859.html</t>
+          <t>/news,603596,1251431275.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利11月23日被沪股通减持7.35万股</t>
+          <t>伯特利11月24日获沪股通增持9.93万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1250420265.html</t>
+          <t>/news,603596,1250943652.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
+          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-24 07:38</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1250417518.html</t>
+          <t>/news,603596,1250942859.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利11月22日被沪股通减持60.02万股</t>
+          <t>伯特利11月23日被沪股通减持7.35万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1249875772.html</t>
+          <t>/news,603596,1250420265.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
+          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1249873035.html</t>
+          <t>/news,603596,1250417518.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
+          <t>伯特利11月22日被沪股通减持60.02万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-22 18:38</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1249737391.html</t>
+          <t>/news,603596,1249875772.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利11月21日被沪股通减持3.05万股</t>
+          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1249349789.html</t>
+          <t>/news,603596,1249873035.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>858</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
+          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-22 07:56</t>
+          <t>11-22 18:38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1249349421.html</t>
+          <t>/news,603596,1249737391.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>897</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>1359</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,125 +2259,125 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>东亚前海证券维持伯特利推荐评级 预计2022年净利润同比增长23.59%</t>
+          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-31 15:38</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1241137592.html</t>
+          <t>/news,603596,1241158856.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东亚前海证券给予伯特利推荐评级 多产品线营收稳步提升 有力带动公司三季度业绩创新高</t>
+          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-31 15:32</t>
+          <t>10-31 16:43</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1241136999.html</t>
+          <t>/news,603596,1241156684.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利12月05日获沪股通增持73.58万股</t>
+          <t>伯特利12月06日被沪股通减持5.74万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 07:52</t>
+          <t>12-07 07:56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1255448508.html</t>
+          <t>/news,603596,1256092315.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
+          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,51 +509,51 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 07:38</t>
+          <t>12-07 07:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1255445822.html</t>
+          <t>/news,603596,1256089159.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
+          <t>伯特利12月05日获沪股通增持73.58万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1254650595.html</t>
+          <t>/news,603596,1255448508.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,61 +563,61 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
+          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1254643679.html</t>
+          <t>/news,603596,1255445822.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利12月02日获沪股通增持19.39万股</t>
+          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-03 07:46</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1254511494.html</t>
+          <t>/news,603596,1254650595.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
+          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-03 07:41</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1254510898.html</t>
+          <t>/news,603596,1254643679.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利12月01日获沪股通增持24.23万股</t>
+          <t>伯特利12月02日获沪股通增持19.39万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 07:52</t>
+          <t>12-03 07:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1253913743.html</t>
+          <t>/news,603596,1254511494.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
+          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 07:34</t>
+          <t>12-03 07:41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1253910654.html</t>
+          <t>/news,603596,1254510898.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利11月30日被沪股通减持3.51万股</t>
+          <t>伯特利12月01日获沪股通增持24.23万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-02 07:52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1253302790.html</t>
+          <t>/news,603596,1253913743.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
+          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 07:36</t>
+          <t>12-02 07:34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1253299007.html</t>
+          <t>/news,603596,1253910654.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利11月29日被沪股通减持13.04万股</t>
+          <t>伯特利11月30日被沪股通减持3.51万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1252779085.html</t>
+          <t>/news,603596,1253302790.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
+          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-30 07:37</t>
+          <t>12-01 07:36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1252775894.html</t>
+          <t>/news,603596,1253299007.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利11月28日被沪股通减持28.96万股</t>
+          <t>伯特利11月29日被沪股通减持13.04万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-29 07:49</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1252212776.html</t>
+          <t>/news,603596,1252779085.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
+          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:37</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1252211863.html</t>
+          <t>/news,603596,1252775894.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,61 +915,61 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
+          <t>伯特利11月28日被沪股通减持28.96万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-27 15:07</t>
+          <t>11-29 07:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1251590240.html</t>
+          <t>/news,603596,1252212776.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
+          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1251584514.html</t>
+          <t>/news,603596,1252211863.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利11月25日获沪股通增持31.76万股</t>
+          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-26 07:58</t>
+          <t>11-27 15:07</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1251435236.html</t>
+          <t>/news,603596,1251590240.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
+          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1251431275.html</t>
+          <t>/news,603596,1251584514.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利11月24日获沪股通增持9.93万股</t>
+          <t>伯特利11月25日获沪股通增持31.76万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-26 07:58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1250943652.html</t>
+          <t>/news,603596,1251435236.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
+          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1250942859.html</t>
+          <t>/news,603596,1251431275.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利11月23日被沪股通减持7.35万股</t>
+          <t>伯特利11月24日获沪股通增持9.93万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1250420265.html</t>
+          <t>/news,603596,1250943652.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
+          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-24 07:38</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1250417518.html</t>
+          <t>/news,603596,1250942859.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利11月22日被沪股通减持60.02万股</t>
+          <t>伯特利11月23日被沪股通减持7.35万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1249875772.html</t>
+          <t>/news,603596,1250420265.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
+          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1249873035.html</t>
+          <t>/news,603596,1250417518.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
+          <t>伯特利11月22日被沪股通减持60.02万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-22 18:38</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1249737391.html</t>
+          <t>/news,603596,1249875772.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利11月21日被沪股通减持3.05万股</t>
+          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1249349789.html</t>
+          <t>/news,603596,1249873035.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>865</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
+          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-22 07:56</t>
+          <t>11-22 18:38</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1249349421.html</t>
+          <t>/news,603596,1249737391.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>903</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>659</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1359</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>1407</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,125 +2323,125 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>东方证券给予伯特利买入评级 业绩符合预期 新增线控制动产品项目将保障盈利增长</t>
+          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1241158856.html</t>
+          <t>/news,603596,1241209357.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东方证券维持伯特利买入评级 目标价87.72元</t>
+          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-31 16:43</t>
+          <t>10-31 19:37</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1241156684.html</t>
+          <t>/news,603596,1241203503.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利12月06日被沪股通减持5.74万股</t>
+          <t>伯特利12月07日获沪股通增持9.84万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 07:56</t>
+          <t>12-08 07:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1256092315.html</t>
+          <t>/news,603596,1256755089.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
+          <t>伯特利：融资净偿还201.05万元，融资余额7978.78万元（12-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 07:38</t>
+          <t>12-08 07:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1256089159.html</t>
+          <t>/news,603596,1256753572.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利12月05日获沪股通增持73.58万股</t>
+          <t>伯特利12月06日被沪股通减持5.74万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 07:52</t>
+          <t>12-07 07:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1255448508.html</t>
+          <t>/news,603596,1256092315.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
+          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 07:38</t>
+          <t>12-07 07:38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1255445822.html</t>
+          <t>/news,603596,1256089159.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
+          <t>伯特利12月05日获沪股通增持73.58万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1254650595.html</t>
+          <t>/news,603596,1255448508.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,61 +627,61 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
+          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1254643679.html</t>
+          <t>/news,603596,1255445822.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利12月02日获沪股通增持19.39万股</t>
+          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-03 07:46</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1254511494.html</t>
+          <t>/news,603596,1254650595.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
+          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-03 07:41</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1254510898.html</t>
+          <t>/news,603596,1254643679.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利12月01日获沪股通增持24.23万股</t>
+          <t>伯特利12月02日获沪股通增持19.39万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 07:52</t>
+          <t>12-03 07:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1253913743.html</t>
+          <t>/news,603596,1254511494.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
+          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 07:34</t>
+          <t>12-03 07:41</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1253910654.html</t>
+          <t>/news,603596,1254510898.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利11月30日被沪股通减持3.51万股</t>
+          <t>伯特利12月01日获沪股通增持24.23万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-02 07:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1253302790.html</t>
+          <t>/news,603596,1253913743.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
+          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 07:36</t>
+          <t>12-02 07:34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1253299007.html</t>
+          <t>/news,603596,1253910654.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利11月29日被沪股通减持13.04万股</t>
+          <t>伯特利11月30日被沪股通减持3.51万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1252779085.html</t>
+          <t>/news,603596,1253302790.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
+          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 07:37</t>
+          <t>12-01 07:36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1252775894.html</t>
+          <t>/news,603596,1253299007.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利11月28日被沪股通减持28.96万股</t>
+          <t>伯特利11月29日被沪股通减持13.04万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-29 07:49</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1252212776.html</t>
+          <t>/news,603596,1252779085.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
+          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1252211863.html</t>
+          <t>/news,603596,1252775894.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,61 +979,61 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
+          <t>伯特利11月28日被沪股通减持28.96万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-27 15:07</t>
+          <t>11-29 07:49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1251590240.html</t>
+          <t>/news,603596,1252212776.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
+          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1251584514.html</t>
+          <t>/news,603596,1252211863.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利11月25日获沪股通增持31.76万股</t>
+          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-26 07:58</t>
+          <t>11-27 15:07</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1251435236.html</t>
+          <t>/news,603596,1251590240.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
+          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1251431275.html</t>
+          <t>/news,603596,1251584514.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利11月24日获沪股通增持9.93万股</t>
+          <t>伯特利11月25日获沪股通增持31.76万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-26 07:58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1250943652.html</t>
+          <t>/news,603596,1251435236.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
+          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1250942859.html</t>
+          <t>/news,603596,1251431275.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利11月23日被沪股通减持7.35万股</t>
+          <t>伯特利11月24日获沪股通增持9.93万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1250420265.html</t>
+          <t>/news,603596,1250943652.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
+          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-24 07:38</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1250417518.html</t>
+          <t>/news,603596,1250942859.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利11月22日被沪股通减持60.02万股</t>
+          <t>伯特利11月23日被沪股通减持7.35万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1249875772.html</t>
+          <t>/news,603596,1250420265.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
+          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:38</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1249873035.html</t>
+          <t>/news,603596,1250417518.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期</t>
+          <t>伯特利11月22日被沪股通减持60.02万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-22 18:38</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1249737391.html</t>
+          <t>/news,603596,1249875772.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利11月21日被沪股通减持3.05万股</t>
+          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1249349789.html</t>
+          <t>/news,603596,1249873035.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>869</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
+          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 07:56</t>
+          <t>11-22 18:38</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1249349421.html</t>
+          <t>/news,603596,1249737391.html</t>
         </is>
       </c>
     </row>
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>903</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>659</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1407</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>1430</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,125 +2387,125 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>信达证券给予伯特利买入评级 Q3业绩符合预告，单季度收入同比倍增</t>
+          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1241209357.html</t>
+          <t>/news,603596,1241293707.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>信达证券维持伯特利买入评级 预计2022年净利润同比增长34.98%</t>
+          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-31 19:37</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1241203503.html</t>
+          <t>/news,603596,1241237746.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利12月07日获沪股通增持9.84万股</t>
+          <t>伯特利12月08日被沪股通减持19.81万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 07:45</t>
+          <t>12-09 07:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1256755089.html</t>
+          <t>/news,603596,1257394072.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还201.05万元，融资余额7978.78万元（12-07）</t>
+          <t>伯特利：融资净偿还7.2万元，融资余额7971.58万元（12-08）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:38</t>
+          <t>12-09 07:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1256753572.html</t>
+          <t>/news,603596,1257390817.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利12月06日被沪股通减持5.74万股</t>
+          <t>伯特利12月07日获沪股通增持9.84万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 07:56</t>
+          <t>12-08 07:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1256092315.html</t>
+          <t>/news,603596,1256755089.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
+          <t>伯特利：融资净偿还201.05万元，融资余额7978.78万元（12-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 07:38</t>
+          <t>12-08 07:38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1256089159.html</t>
+          <t>/news,603596,1256753572.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利12月05日获沪股通增持73.58万股</t>
+          <t>伯特利12月06日被沪股通减持5.74万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 07:52</t>
+          <t>12-07 07:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1255448508.html</t>
+          <t>/news,603596,1256092315.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
+          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 07:38</t>
+          <t>12-07 07:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1255445822.html</t>
+          <t>/news,603596,1256089159.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
+          <t>伯特利12月05日获沪股通增持73.58万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1254650595.html</t>
+          <t>/news,603596,1255448508.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,61 +691,61 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
+          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1254643679.html</t>
+          <t>/news,603596,1255445822.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利12月02日获沪股通增持19.39万股</t>
+          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-03 07:46</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1254511494.html</t>
+          <t>/news,603596,1254650595.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
+          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-03 07:41</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1254510898.html</t>
+          <t>/news,603596,1254643679.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利12月01日获沪股通增持24.23万股</t>
+          <t>伯特利12月02日获沪股通增持19.39万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 07:52</t>
+          <t>12-03 07:46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1253913743.html</t>
+          <t>/news,603596,1254511494.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
+          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 07:34</t>
+          <t>12-03 07:41</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1253910654.html</t>
+          <t>/news,603596,1254510898.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利11月30日被沪股通减持3.51万股</t>
+          <t>伯特利12月01日获沪股通增持24.23万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-02 07:52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1253302790.html</t>
+          <t>/news,603596,1253913743.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
+          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 07:36</t>
+          <t>12-02 07:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1253299007.html</t>
+          <t>/news,603596,1253910654.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利11月29日被沪股通减持13.04万股</t>
+          <t>伯特利11月30日被沪股通减持3.51万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1252779085.html</t>
+          <t>/news,603596,1253302790.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
+          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 07:37</t>
+          <t>12-01 07:36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1252775894.html</t>
+          <t>/news,603596,1253299007.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利11月28日被沪股通减持28.96万股</t>
+          <t>伯特利11月29日被沪股通减持13.04万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 07:49</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1252212776.html</t>
+          <t>/news,603596,1252779085.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
+          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:37</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1252211863.html</t>
+          <t>/news,603596,1252775894.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,61 +1043,61 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
+          <t>伯特利11月28日被沪股通减持28.96万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-27 15:07</t>
+          <t>11-29 07:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1251590240.html</t>
+          <t>/news,603596,1252212776.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
+          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1251584514.html</t>
+          <t>/news,603596,1252211863.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利11月25日获沪股通增持31.76万股</t>
+          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-26 07:58</t>
+          <t>11-27 15:07</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1251435236.html</t>
+          <t>/news,603596,1251590240.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
+          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1251431275.html</t>
+          <t>/news,603596,1251584514.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利11月24日获沪股通增持9.93万股</t>
+          <t>伯特利11月25日获沪股通增持31.76万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-26 07:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1250943652.html</t>
+          <t>/news,603596,1251435236.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
+          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1250942859.html</t>
+          <t>/news,603596,1251431275.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利11月23日被沪股通减持7.35万股</t>
+          <t>伯特利11月24日获沪股通增持9.93万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1250420265.html</t>
+          <t>/news,603596,1250943652.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
+          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-24 07:38</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1250417518.html</t>
+          <t>/news,603596,1250942859.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利11月22日被沪股通减持60.02万股</t>
+          <t>伯特利11月23日被沪股通减持7.35万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1249875772.html</t>
+          <t>/news,603596,1250420265.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
+          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:38</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1249873035.html</t>
+          <t>/news,603596,1250417518.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
+          <t>伯特利11月22日被沪股通减持60.02万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 18:38</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1249737391.html</t>
+          <t>/news,603596,1249875772.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利11月21日被沪股通减持3.05万股</t>
+          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1249349789.html</t>
+          <t>/news,603596,1249873035.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>873</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
+          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,12 +1437,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 07:56</t>
+          <t>11-22 18:38</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1249349421.html</t>
+          <t>/news,603596,1249737391.html</t>
         </is>
       </c>
     </row>
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>904</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,125 +2451,125 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 11:08</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1241960598.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>伯特利11月01日被沪股通减持46.12万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 07:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1241802042.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还84.89万元，融资余额2424.88万元（10-31）</t>
+          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1241293707.html</t>
+          <t>/news,603596,1241800554.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>长江证券维持伯特利买入评级 预计2022年净利润同比增长40.73%</t>
+          <t>伯特利10月31日被沪股通减持51.69万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1241237746.html</t>
+          <t>/news,603596,1241297261.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利12月08日被沪股通减持19.81万股</t>
+          <t>伯特利本周融资净买入937.65万元，居汽车零部件板块第十三</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 07:53</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1257394072.html</t>
+          <t>/news,603596,1258090359.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还7.2万元，融资余额7971.58万元（12-08）</t>
+          <t>伯特利本周沪股通持股市值增加4759.19万元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 07:38</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1257390817.html</t>
+          <t>/news,603596,1258081516.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利12月07日获沪股通增持9.84万股</t>
+          <t>伯特利12月09日获沪股通增持1.58万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-08 07:45</t>
+          <t>12-10 08:01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1256755089.html</t>
+          <t>/news,603596,1257966785.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还201.05万元，融资余额7978.78万元（12-07）</t>
+          <t>伯特利：融资净买入50.45万元，融资余额8022.03万元（12-09）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 07:38</t>
+          <t>12-10 07:43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1256753572.html</t>
+          <t>/news,603596,1257963664.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利12月06日被沪股通减持5.74万股</t>
+          <t>伯特利12月08日被沪股通减持19.81万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 07:56</t>
+          <t>12-09 07:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1256092315.html</t>
+          <t>/news,603596,1257394072.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
+          <t>伯特利：融资净偿还7.2万元，融资余额7971.58万元（12-08）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 07:38</t>
+          <t>12-09 07:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1256089159.html</t>
+          <t>/news,603596,1257390817.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利12月05日获沪股通增持73.58万股</t>
+          <t>伯特利12月07日获沪股通增持9.84万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 07:52</t>
+          <t>12-08 07:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1255448508.html</t>
+          <t>/news,603596,1256755089.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
+          <t>伯特利：融资净偿还201.05万元，融资余额7978.78万元（12-07）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 07:38</t>
+          <t>12-08 07:38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1255445822.html</t>
+          <t>/news,603596,1256753572.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
+          <t>伯特利12月06日被沪股通减持5.74万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-07 07:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1254650595.html</t>
+          <t>/news,603596,1256092315.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
+          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-07 07:38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1254643679.html</t>
+          <t>/news,603596,1256089159.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利12月02日获沪股通增持19.39万股</t>
+          <t>伯特利12月05日获沪股通增持73.58万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-03 07:46</t>
+          <t>12-06 07:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1254511494.html</t>
+          <t>/news,603596,1255448508.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
+          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,51 +829,51 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-03 07:41</t>
+          <t>12-06 07:38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1254510898.html</t>
+          <t>/news,603596,1255445822.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利12月01日获沪股通增持24.23万股</t>
+          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 07:52</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1253913743.html</t>
+          <t>/news,603596,1254650595.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
+          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 07:34</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1253910654.html</t>
+          <t>/news,603596,1254643679.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利11月30日被沪股通减持3.51万股</t>
+          <t>伯特利12月02日获沪股通增持19.39万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-03 07:46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1253302790.html</t>
+          <t>/news,603596,1254511494.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
+          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 07:36</t>
+          <t>12-03 07:41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1253299007.html</t>
+          <t>/news,603596,1254510898.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利11月29日被沪股通减持13.04万股</t>
+          <t>伯特利12月01日获沪股通增持24.23万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>12-02 07:52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1252779085.html</t>
+          <t>/news,603596,1253913743.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
+          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 07:37</t>
+          <t>12-02 07:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1252775894.html</t>
+          <t>/news,603596,1253910654.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利11月28日被沪股通减持28.96万股</t>
+          <t>伯特利11月30日被沪股通减持3.51万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-29 07:49</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1252212776.html</t>
+          <t>/news,603596,1253302790.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
+          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>12-01 07:36</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1252211863.html</t>
+          <t>/news,603596,1253299007.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
+          <t>伯特利11月29日被沪股通减持13.04万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-27 15:07</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1251590240.html</t>
+          <t>/news,603596,1252779085.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
+          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-30 07:37</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1251584514.html</t>
+          <t>/news,603596,1252775894.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利11月25日获沪股通增持31.76万股</t>
+          <t>伯特利11月28日被沪股通减持28.96万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-26 07:58</t>
+          <t>11-29 07:49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1251435236.html</t>
+          <t>/news,603596,1252212776.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
+          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1251431275.html</t>
+          <t>/news,603596,1252211863.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利11月24日获沪股通增持9.93万股</t>
+          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-27 15:07</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1250943652.html</t>
+          <t>/news,603596,1251590240.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
+          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1250942859.html</t>
+          <t>/news,603596,1251584514.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利11月23日被沪股通减持7.35万股</t>
+          <t>伯特利11月25日获沪股通增持31.76万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-26 07:58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1250420265.html</t>
+          <t>/news,603596,1251435236.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
+          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-24 07:38</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1250417518.html</t>
+          <t>/news,603596,1251431275.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利11月22日被沪股通减持60.02万股</t>
+          <t>伯特利11月24日获沪股通增持9.93万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1249875772.html</t>
+          <t>/news,603596,1250943652.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
+          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1249873035.html</t>
+          <t>/news,603596,1250942859.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
+          <t>伯特利11月23日被沪股通减持7.35万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 18:38</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1249737391.html</t>
+          <t>/news,603596,1250420265.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利11月21日被沪股通减持3.05万股</t>
+          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-24 07:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1249349789.html</t>
+          <t>/news,603596,1250417518.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
+          <t>伯特利11月22日被沪股通减持60.02万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 07:56</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1249349421.html</t>
+          <t>/news,603596,1249875772.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1249873035.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>880</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-22 18:38</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1249737391.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,39 +2067,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>908</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1481</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,71 +2515,71 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,93 +2621,93 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中原证券首次给予伯特利买入评级 预计2022年净利润同比增长64.71%</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-02 11:08</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1241960598.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利11月01日被沪股通减持46.12万股</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-02 07:55</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1241802042.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入682.56万元，融资余额3107.45万元（11-01）</t>
+          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-02 21:28</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1241800554.html</t>
+          <t>/news,603596,1242264336.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伯特利10月31日被沪股通减持51.69万股</t>
+          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 21:21</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1241297261.html</t>
+          <t>/news,603596,1242257690.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入937.65万元，居汽车零部件板块第十三</t>
+          <t>伯特利12月12日被沪股通减持20.54万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-11 15:09</t>
+          <t>12-13 07:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1258090359.html</t>
+          <t>/news,603596,1258761363.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加4759.19万元，居汽车零部件板块第二</t>
+          <t>伯特利：融资净买入94.8万元，融资余额8116.83万元（12-12）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-13 07:40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1258081516.html</t>
+          <t>/news,603596,1258759698.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利12月09日获沪股通增持1.58万股</t>
+          <t>伯特利本周融资净买入937.65万元，居汽车零部件板块第十三</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-10 08:01</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1257966785.html</t>
+          <t>/news,603596,1258090359.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入50.45万元，融资余额8022.03万元（12-09）</t>
+          <t>伯特利本周沪股通持股市值增加4759.19万元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-10 07:43</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1257963664.html</t>
+          <t>/news,603596,1258081516.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利12月08日被沪股通减持19.81万股</t>
+          <t>伯特利12月09日获沪股通增持1.58万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 07:53</t>
+          <t>12-10 08:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1257394072.html</t>
+          <t>/news,603596,1257966785.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还7.2万元，融资余额7971.58万元（12-08）</t>
+          <t>伯特利：融资净买入50.45万元，融资余额8022.03万元（12-09）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-09 07:38</t>
+          <t>12-10 07:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1257390817.html</t>
+          <t>/news,603596,1257963664.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利12月07日获沪股通增持9.84万股</t>
+          <t>伯特利12月08日被沪股通减持19.81万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-08 07:45</t>
+          <t>12-09 07:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1256755089.html</t>
+          <t>/news,603596,1257394072.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还201.05万元，融资余额7978.78万元（12-07）</t>
+          <t>伯特利：融资净偿还7.2万元，融资余额7971.58万元（12-08）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-08 07:38</t>
+          <t>12-09 07:38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1256753572.html</t>
+          <t>/news,603596,1257390817.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利12月06日被沪股通减持5.74万股</t>
+          <t>伯特利12月07日获沪股通增持9.84万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-07 07:56</t>
+          <t>12-08 07:45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1256092315.html</t>
+          <t>/news,603596,1256755089.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
+          <t>伯特利：融资净偿还201.05万元，融资余额7978.78万元（12-07）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-07 07:38</t>
+          <t>12-08 07:38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1256089159.html</t>
+          <t>/news,603596,1256753572.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利12月05日获沪股通增持73.58万股</t>
+          <t>伯特利12月06日被沪股通减持5.74万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-06 07:52</t>
+          <t>12-07 07:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1255448508.html</t>
+          <t>/news,603596,1256092315.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
+          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,44 +829,44 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-06 07:38</t>
+          <t>12-07 07:38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1255445822.html</t>
+          <t>/news,603596,1256089159.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
+          <t>伯特利12月05日获沪股通增持73.58万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1254650595.html</t>
+          <t>/news,603596,1255448508.html</t>
         </is>
       </c>
     </row>
@@ -883,61 +883,61 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
+          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1254643679.html</t>
+          <t>/news,603596,1255445822.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利12月02日获沪股通增持19.39万股</t>
+          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-03 07:46</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1254511494.html</t>
+          <t>/news,603596,1254650595.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
+          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-03 07:41</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1254510898.html</t>
+          <t>/news,603596,1254643679.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利12月01日获沪股通增持24.23万股</t>
+          <t>伯特利12月02日获沪股通增持19.39万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 07:52</t>
+          <t>12-03 07:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1253913743.html</t>
+          <t>/news,603596,1254511494.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
+          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 07:34</t>
+          <t>12-03 07:41</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1253910654.html</t>
+          <t>/news,603596,1254510898.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利11月30日被沪股通减持3.51万股</t>
+          <t>伯特利12月01日获沪股通增持24.23万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-02 07:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1253302790.html</t>
+          <t>/news,603596,1253913743.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
+          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 07:36</t>
+          <t>12-02 07:34</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1253299007.html</t>
+          <t>/news,603596,1253910654.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利11月29日被沪股通减持13.04万股</t>
+          <t>伯特利11月30日被沪股通减持3.51万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1252779085.html</t>
+          <t>/news,603596,1253302790.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
+          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 07:37</t>
+          <t>12-01 07:36</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1252775894.html</t>
+          <t>/news,603596,1253299007.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利11月28日被沪股通减持28.96万股</t>
+          <t>伯特利11月29日被沪股通减持13.04万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 07:49</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1252212776.html</t>
+          <t>/news,603596,1252779085.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
+          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:37</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1252211863.html</t>
+          <t>/news,603596,1252775894.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,61 +1235,61 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
+          <t>伯特利11月28日被沪股通减持28.96万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-27 15:07</t>
+          <t>11-29 07:49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1251590240.html</t>
+          <t>/news,603596,1252212776.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
+          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1251584514.html</t>
+          <t>/news,603596,1252211863.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利11月25日获沪股通增持31.76万股</t>
+          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-26 07:58</t>
+          <t>11-27 15:07</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1251435236.html</t>
+          <t>/news,603596,1251590240.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
+          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1251431275.html</t>
+          <t>/news,603596,1251584514.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利11月24日获沪股通增持9.93万股</t>
+          <t>伯特利11月25日获沪股通增持31.76万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-26 07:58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1250943652.html</t>
+          <t>/news,603596,1251435236.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
+          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1250942859.html</t>
+          <t>/news,603596,1251431275.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利11月23日被沪股通减持7.35万股</t>
+          <t>伯特利11月24日获沪股通增持9.93万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1250420265.html</t>
+          <t>/news,603596,1250943652.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
+          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 07:38</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1250417518.html</t>
+          <t>/news,603596,1250942859.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利11月22日被沪股通减持60.02万股</t>
+          <t>伯特利11月23日被沪股通减持7.35万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1249875772.html</t>
+          <t>/news,603596,1250420265.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
+          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1249873035.html</t>
+          <t>/news,603596,1250417518.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期</t>
+          <t>伯特利11月22日被沪股通减持60.02万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-22 18:38</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1249737391.html</t>
+          <t>/news,603596,1249875772.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利11月21日被沪股通减持3.05万股</t>
+          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1249349789.html</t>
+          <t>/news,603596,1249873035.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
+          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 07:56</t>
+          <t>11-22 18:38</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1249349421.html</t>
+          <t>/news,603596,1249737391.html</t>
         </is>
       </c>
     </row>
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>910</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1481</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,125 +2643,125 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天风证券给予伯特利买入评级：22Q3业绩创历史新高 智能电控业务占比加速提升</t>
+          <t>伯特利11月02日获沪股通增持20.91万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 21:28</t>
+          <t>11-03 07:58</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1242264336.html</t>
+          <t>/news,603596,1242327071.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天风证券维持伯特利买入评级 预计2022年净利润同比增长35.32%</t>
+          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-02 21:21</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1242257690.html</t>
+          <t>/news,603596,1242322511.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利12月12日被沪股通减持20.54万股</t>
+          <t>伯特利12月13日被沪股通减持40.86万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 07:51</t>
+          <t>12-14 07:58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1258761363.html</t>
+          <t>/news,603596,1259348270.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入94.8万元，融资余额8116.83万元（12-12）</t>
+          <t>伯特利：连续3日融资净买入累计784.56万元（12-13）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:40</t>
+          <t>12-14 07:44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1258759698.html</t>
+          <t>/news,603596,1259345874.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入937.65万元，居汽车零部件板块第十三</t>
+          <t>伯特利12月12日被沪股通减持20.54万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 15:09</t>
+          <t>12-13 07:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1258090359.html</t>
+          <t>/news,603596,1258761363.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加4759.19万元，居汽车零部件板块第二</t>
+          <t>伯特利：融资净买入94.8万元，融资余额8116.83万元（12-12）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-13 07:40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1258081516.html</t>
+          <t>/news,603596,1258759698.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利12月09日获沪股通增持1.58万股</t>
+          <t>伯特利本周融资净买入937.65万元，居汽车零部件板块第十三</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-10 08:01</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1257966785.html</t>
+          <t>/news,603596,1258090359.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入50.45万元，融资余额8022.03万元（12-09）</t>
+          <t>伯特利本周沪股通持股市值增加4759.19万元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-10 07:43</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1257963664.html</t>
+          <t>/news,603596,1258081516.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利12月08日被沪股通减持19.81万股</t>
+          <t>伯特利12月09日获沪股通增持1.58万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-09 07:53</t>
+          <t>12-10 08:01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1257394072.html</t>
+          <t>/news,603596,1257966785.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还7.2万元，融资余额7971.58万元（12-08）</t>
+          <t>伯特利：融资净买入50.45万元，融资余额8022.03万元（12-09）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 07:38</t>
+          <t>12-10 07:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1257390817.html</t>
+          <t>/news,603596,1257963664.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利12月07日获沪股通增持9.84万股</t>
+          <t>伯特利12月08日被沪股通减持19.81万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-08 07:45</t>
+          <t>12-09 07:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1256755089.html</t>
+          <t>/news,603596,1257394072.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还201.05万元，融资余额7978.78万元（12-07）</t>
+          <t>伯特利：融资净偿还7.2万元，融资余额7971.58万元（12-08）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-08 07:38</t>
+          <t>12-09 07:38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1256753572.html</t>
+          <t>/news,603596,1257390817.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利12月06日被沪股通减持5.74万股</t>
+          <t>伯特利12月07日获沪股通增持9.84万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-07 07:56</t>
+          <t>12-08 07:45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1256092315.html</t>
+          <t>/news,603596,1256755089.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
+          <t>伯特利：融资净偿还201.05万元，融资余额7978.78万元（12-07）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-07 07:38</t>
+          <t>12-08 07:38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1256089159.html</t>
+          <t>/news,603596,1256753572.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利12月05日获沪股通增持73.58万股</t>
+          <t>伯特利12月06日被沪股通减持5.74万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-06 07:52</t>
+          <t>12-07 07:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1255448508.html</t>
+          <t>/news,603596,1256092315.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
+          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,51 +893,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-06 07:38</t>
+          <t>12-07 07:38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1255445822.html</t>
+          <t>/news,603596,1256089159.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
+          <t>伯特利12月05日获沪股通增持73.58万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1254650595.html</t>
+          <t>/news,603596,1255448508.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,61 +947,61 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
+          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1254643679.html</t>
+          <t>/news,603596,1255445822.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利12月02日获沪股通增持19.39万股</t>
+          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-03 07:46</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1254511494.html</t>
+          <t>/news,603596,1254650595.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
+          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-03 07:41</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1254510898.html</t>
+          <t>/news,603596,1254643679.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利12月01日获沪股通增持24.23万股</t>
+          <t>伯特利12月02日获沪股通增持19.39万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 07:52</t>
+          <t>12-03 07:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1253913743.html</t>
+          <t>/news,603596,1254511494.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
+          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 07:34</t>
+          <t>12-03 07:41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1253910654.html</t>
+          <t>/news,603596,1254510898.html</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利11月30日被沪股通减持3.51万股</t>
+          <t>伯特利12月01日获沪股通增持24.23万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-02 07:52</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1253302790.html</t>
+          <t>/news,603596,1253913743.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
+          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 07:36</t>
+          <t>12-02 07:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1253299007.html</t>
+          <t>/news,603596,1253910654.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利11月29日被沪股通减持13.04万股</t>
+          <t>伯特利11月30日被沪股通减持3.51万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1252779085.html</t>
+          <t>/news,603596,1253302790.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
+          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 07:37</t>
+          <t>12-01 07:36</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1252775894.html</t>
+          <t>/news,603596,1253299007.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利11月28日被沪股通减持28.96万股</t>
+          <t>伯特利11月29日被沪股通减持13.04万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-29 07:49</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1252212776.html</t>
+          <t>/news,603596,1252779085.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
+          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1252211863.html</t>
+          <t>/news,603596,1252775894.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,61 +1299,61 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
+          <t>伯特利11月28日被沪股通减持28.96万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 15:07</t>
+          <t>11-29 07:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1251590240.html</t>
+          <t>/news,603596,1252212776.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
+          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1251584514.html</t>
+          <t>/news,603596,1252211863.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利11月25日获沪股通增持31.76万股</t>
+          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-26 07:58</t>
+          <t>11-27 15:07</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1251435236.html</t>
+          <t>/news,603596,1251590240.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
+          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1251431275.html</t>
+          <t>/news,603596,1251584514.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利11月24日获沪股通增持9.93万股</t>
+          <t>伯特利11月25日获沪股通增持31.76万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-26 07:58</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1250943652.html</t>
+          <t>/news,603596,1251435236.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
+          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1250942859.html</t>
+          <t>/news,603596,1251431275.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利11月23日被沪股通减持7.35万股</t>
+          <t>伯特利11月24日获沪股通增持9.93万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1250420265.html</t>
+          <t>/news,603596,1250943652.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
+          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 07:38</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1250417518.html</t>
+          <t>/news,603596,1250942859.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利11月22日被沪股通减持60.02万股</t>
+          <t>伯特利11月23日被沪股通减持7.35万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1249875772.html</t>
+          <t>/news,603596,1250420265.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
+          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:38</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1249873035.html</t>
+          <t>/news,603596,1250417518.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
+          <t>伯特利11月22日被沪股通减持60.02万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 18:38</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1249737391.html</t>
+          <t>/news,603596,1249875772.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利11月21日被沪股通减持3.05万股</t>
+          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1249349789.html</t>
+          <t>/news,603596,1249873035.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>888</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
+          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,12 +1693,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 07:56</t>
+          <t>11-22 18:38</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1249349421.html</t>
+          <t>/news,603596,1249737391.html</t>
         </is>
       </c>
     </row>
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>912</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>668</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-10 07:36</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1244888253.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1684</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1244782558.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-09 07:58</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1244429643.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利11月08日获沪股通增持6.46万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1244427750.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-08 17:19</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1244302503.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,125 +2707,125 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1243976238.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利11月07日获沪股通增持4.8万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1243974318.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1243413248.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1243405112.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利11月04日被沪股通减持63.26万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:46</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1243318141.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-05 07:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1243316536.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1243229464.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-04 11:39</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1243017603.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伯特利11月02日获沪股通增持20.91万股</t>
+          <t>伯特利11月03日被沪股通减持8.95万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-03 07:58</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1242327071.html</t>
+          <t>/news,603596,1242817510.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还787.36万元，融资余额2320.08万元（11-02）</t>
+          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:37</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1242322511.html</t>
+          <t>/news,603596,1242814936.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利12月13日被沪股通减持40.86万股</t>
+          <t>伯特利12月19日被沪股通减持2.35万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 07:58</t>
+          <t>12-20 07:33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1259348270.html</t>
+          <t>/news,603596,1261721384.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计784.56万元（12-13）</t>
+          <t>伯特利：融资净偿还249.26万元，融资余额8672.48万元（12-19）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-14 07:44</t>
+          <t>12-20 07:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1259345874.html</t>
+          <t>/news,603596,1261720209.html</t>
         </is>
       </c>
     </row>
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利12月12日被沪股通减持20.54万股</t>
+          <t>伯特利本周融资净买入855.18万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 07:51</t>
+          <t>12-18 15:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1258761363.html</t>
+          <t>/news,603596,1261086687.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入94.8万元，融资余额8116.83万元（12-12）</t>
+          <t>伯特利本周沪股通持股市值减少3217.83万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 07:40</t>
+          <t>12-18 14:14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1258759698.html</t>
+          <t>/news,603596,1261081820.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入937.65万元，居汽车零部件板块第十三</t>
+          <t>伯特利12月16日被沪股通减持29.89万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 15:09</t>
+          <t>12-17 07:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1258090359.html</t>
+          <t>/news,603596,1260975900.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,39 +627,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加4759.19万元，居汽车零部件板块第二</t>
+          <t>伯特利：融资净买入989.95万元，融资余额8891.91万元（12-16）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-17 07:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1258081516.html</t>
+          <t>/news,603596,1260974134.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伯特利12月09日获沪股通增持1.58万股</t>
+          <t>华西证券给予伯特利买入评级，再施员工持股计划 绑定人才加速发展</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-10 08:01</t>
+          <t>12-16 10:01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1257966785.html</t>
+          <t>/news,603596,1260562156.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入50.45万元，融资余额8022.03万元（12-09）</t>
+          <t>伯特利12月15日获沪股通增持36.8万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-10 07:43</t>
+          <t>12-16 07:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1257963664.html</t>
+          <t>/news,603596,1260477166.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利12月08日被沪股通减持19.81万股</t>
+          <t>伯特利：融资净偿还937.39万元，融资余额7901.97万元（12-15）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-09 07:53</t>
+          <t>12-16 07:35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1257394072.html</t>
+          <t>/news,603596,1260474595.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还7.2万元，融资余额7971.58万元（12-08）</t>
+          <t>西南证券给予伯特利买入评级 目标价格为105.4元</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 07:38</t>
+          <t>12-15 19:31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1257390817.html</t>
+          <t>/news,603596,1260328297.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伯特利12月07日获沪股通增持9.84万股</t>
+          <t>华西证券给予伯特利买入评级 再施员工持股计划绑定人才加速发展</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-08 07:45</t>
+          <t>12-15 09:26</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1256755089.html</t>
+          <t>/news,603596,1259959887.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,39 +819,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还201.05万元，融资余额7978.78万元（12-07）</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-08 07:38</t>
+          <t>12-15 09:23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1256753572.html</t>
+          <t>/news,603596,1259952281.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利12月06日被沪股通减持5.74万股</t>
+          <t>伯特利12月14日获沪股通增持13.6万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-07 07:56</t>
+          <t>12-15 07:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1256092315.html</t>
+          <t>/news,603596,1259934484.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
+          <t>伯特利：连续4日融资净买入累计853.07万元（12-14）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-07 07:38</t>
+          <t>12-15 07:42</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1256089159.html</t>
+          <t>/news,603596,1259931738.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯特利12月05日获沪股通增持73.58万股</t>
+          <t>注意！伯特利将于12月30日召开股东大会</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-06 07:52</t>
+          <t>12-14 21:05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1255448508.html</t>
+          <t>/news,603596,1259798928.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
+          <t>伯特利12月13日被沪股通减持40.86万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-06 07:38</t>
+          <t>12-14 07:58</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1255445822.html</t>
+          <t>/news,603596,1259348270.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
+          <t>伯特利：连续3日融资净买入累计784.56万元（12-13）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-14 07:44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1254650595.html</t>
+          <t>/news,603596,1259345874.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
+          <t>伯特利12月12日被沪股通减持20.54万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-13 07:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1254643679.html</t>
+          <t>/news,603596,1258761363.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利12月02日获沪股通增持19.39万股</t>
+          <t>伯特利：融资净买入94.8万元，融资余额8116.83万元（12-12）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-03 07:46</t>
+          <t>12-13 07:40</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1254511494.html</t>
+          <t>/news,603596,1258759698.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
+          <t>伯特利本周融资净买入937.65万元，居汽车零部件板块第十三</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-03 07:41</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1254510898.html</t>
+          <t>/news,603596,1258090359.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利12月01日获沪股通增持24.23万股</t>
+          <t>伯特利本周沪股通持股市值增加4759.19万元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 07:52</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1253913743.html</t>
+          <t>/news,603596,1258081516.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
+          <t>伯特利12月09日获沪股通增持1.58万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 07:34</t>
+          <t>12-10 08:01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1253910654.html</t>
+          <t>/news,603596,1257966785.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利11月30日被沪股通减持3.51万股</t>
+          <t>伯特利：融资净买入50.45万元，融资余额8022.03万元（12-09）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-10 07:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1253302790.html</t>
+          <t>/news,603596,1257963664.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
+          <t>伯特利12月08日被沪股通减持19.81万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 07:36</t>
+          <t>12-09 07:53</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1253299007.html</t>
+          <t>/news,603596,1257394072.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利11月29日被沪股通减持13.04万股</t>
+          <t>伯特利：融资净偿还7.2万元，融资余额7971.58万元（12-08）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>12-09 07:38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1252779085.html</t>
+          <t>/news,603596,1257390817.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
+          <t>伯特利12月07日获沪股通增持9.84万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 07:37</t>
+          <t>12-08 07:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1252775894.html</t>
+          <t>/news,603596,1256755089.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利11月28日被沪股通减持28.96万股</t>
+          <t>伯特利：融资净偿还201.05万元，融资余额7978.78万元（12-07）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 07:49</t>
+          <t>12-08 07:38</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1252212776.html</t>
+          <t>/news,603596,1256753572.html</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
+          <t>伯特利12月06日被沪股通减持5.74万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>12-07 07:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1252211863.html</t>
+          <t>/news,603596,1256092315.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,61 +1363,61 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
+          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-27 15:07</t>
+          <t>12-07 07:38</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1251590240.html</t>
+          <t>/news,603596,1256089159.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
+          <t>伯特利12月05日获沪股通增持73.58万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>12-06 07:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1251584514.html</t>
+          <t>/news,603596,1255448508.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利11月25日获沪股通增持31.76万股</t>
+          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-26 07:58</t>
+          <t>12-06 07:38</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1251435236.html</t>
+          <t>/news,603596,1255445822.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
+          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1251431275.html</t>
+          <t>/news,603596,1254650595.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利11月24日获沪股通增持9.93万股</t>
+          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1250943652.html</t>
+          <t>/news,603596,1254643679.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
+          <t>伯特利12月02日获沪股通增持19.39万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>12-03 07:46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1250942859.html</t>
+          <t>/news,603596,1254511494.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利11月23日被沪股通减持7.35万股</t>
+          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>12-03 07:41</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1250420265.html</t>
+          <t>/news,603596,1254510898.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
+          <t>伯特利12月01日获沪股通增持24.23万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 07:38</t>
+          <t>12-02 07:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1250417518.html</t>
+          <t>/news,603596,1253913743.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利11月22日被沪股通减持60.02万股</t>
+          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>12-02 07:34</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1249875772.html</t>
+          <t>/news,603596,1253910654.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
+          <t>伯特利11月30日被沪股通减持3.51万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1249873035.html</t>
+          <t>/news,603596,1253302790.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
+          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,12 +1693,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 18:38</t>
+          <t>12-01 07:36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1249737391.html</t>
+          <t>/news,603596,1253299007.html</t>
         </is>
       </c>
     </row>
@@ -1710,12 +1710,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利11月21日被沪股通减持3.05万股</t>
+          <t>伯特利11月29日被沪股通减持13.04万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1249349789.html</t>
+          <t>/news,603596,1252779085.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
+          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 07:56</t>
+          <t>11-30 07:37</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1249349421.html</t>
+          <t>/news,603596,1252775894.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,61 +1779,61 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利11月28日被沪股通减持28.96万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-29 07:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1252212776.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1252211863.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-27 15:07</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1251590240.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1251584514.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利11月25日获沪股通增持31.76万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-26 07:58</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1251435236.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1251431275.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利11月24日获沪股通增持9.93万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1250943652.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1250942859.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利11月23日被沪股通减持7.35万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1250420265.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-24 07:38</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1250417518.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利11月22日被沪股通减持60.02万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1249875772.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1249873035.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>914</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-22 18:38</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1249737391.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入149.82万元，融资余额3177.88万元（11-09）</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-10 07:36</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1244888253.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1684</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伯特利：2022年10月25日至2022年11月8日期间，奇瑞科技累计减持公司股份约250万股</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1244782558.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还137.84万元，融资余额3028.06万元（11-08）</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-09 07:58</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1244429643.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>伯特利11月08日获沪股通增持6.46万股</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1244427750.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交870.8万元，折价9.68%（11-08）</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-08 17:19</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1244302503.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计845.82万元（11-07）</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1243976238.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利11月07日获沪股通增持4.8万股</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1243974318.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,61 +2771,61 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入151.04万元</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1243413248.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少1.38亿元，居汽车零部件板块第二</t>
+          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-11 07:43</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1243405112.html</t>
+          <t>/news,603596,1245411440.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>931</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伯特利11月04日被沪股通减持63.26万股</t>
+          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-05 07:46</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1243318141.html</t>
+          <t>/news,603596,1245411132.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入69.88万元，融资余额2660.81万元（11-04）</t>
+          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-05 07:34</t>
+          <t>11-10 17:27</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1243316536.html</t>
+          <t>/news,603596,1245267686.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大宗交易：伯特利成交3518.4万元，折价14.02%（11-04）</t>
+          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-10 17:09</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1243229464.html</t>
+          <t>/news,603596,1245263435.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>国金证券给予伯特利增持评级 业绩符合预期 市场开拓顺利</t>
+          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-04 11:39</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1243017603.html</t>
+          <t>/news,603596,1245245336.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伯特利11月03日被沪股通减持8.95万股</t>
+          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-10 16:02</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1242817510.html</t>
+          <t>/news,603596,1245245328.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入270.85万元，融资余额2590.93万元（11-03）</t>
+          <t>伯特利11月09日获沪股通增持16.32万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-04 07:37</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1242814936.html</t>
+          <t>/news,603596,1244892210.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603596.xlsx
+++ b/news_ann/news/tmp/603596.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>82</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伯特利12月19日被沪股通减持2.35万股</t>
+          <t>伯特利12月22日被沪股通减持7.72万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 07:33</t>
+          <t>12-23 07:32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603596,1261721384.html</t>
+          <t>/news,603596,1263188731.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还249.26万元，融资余额8672.48万元（12-19）</t>
+          <t>伯特利：融资净偿还522.61万元，融资余额8817.68万元（12-22）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-20 07:30</t>
+          <t>12-23 07:27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603596,1261720209.html</t>
+          <t>/news,603596,1263187630.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入855.18万元，居汽车零部件板块第九</t>
+          <t>伯特利12月21日被沪股通减持15.21万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-18 15:06</t>
+          <t>12-22 07:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603596,1261086687.html</t>
+          <t>/news,603596,1262668074.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,39 +563,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少3217.83万元，居汽车零部件板块第四</t>
+          <t>伯特利：融资净买入456.78万元，融资余额9340.29万元（12-21）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-18 14:14</t>
+          <t>12-22 07:26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603596,1261081820.html</t>
+          <t>/news,603596,1262666824.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伯特利12月16日被沪股通减持29.89万股</t>
+          <t>伯特利：44.1万股限售股12月28日解禁</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-17 07:51</t>
+          <t>12-21 18:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603596,1260975900.html</t>
+          <t>/news,603596,1262541803.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入989.95万元，融资余额8891.91万元（12-16）</t>
+          <t>伯特利12月20日获沪股通增持8.24万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-17 07:38</t>
+          <t>12-21 07:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603596,1260974134.html</t>
+          <t>/news,603596,1262196868.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级，再施员工持股计划 绑定人才加速发展</t>
+          <t>伯特利：融资净买入211.02万元，融资余额8883.51万元（12-20）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-16 10:01</t>
+          <t>12-21 07:25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603596,1260562156.html</t>
+          <t>/news,603596,1262193816.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>伯特利12月15日获沪股通增持36.8万股</t>
+          <t>伯特利12月19日被沪股通减持2.35万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-16 07:50</t>
+          <t>12-20 07:33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603596,1260477166.html</t>
+          <t>/news,603596,1261721384.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还937.39万元，融资余额7901.97万元（12-15）</t>
+          <t>伯特利：融资净偿还249.26万元，融资余额8672.48万元（12-19）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-16 07:35</t>
+          <t>12-20 07:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603596,1260474595.html</t>
+          <t>/news,603596,1261720209.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>西南证券给予伯特利买入评级 目标价格为105.4元</t>
+          <t>伯特利本周融资净买入855.18万元，居汽车零部件板块第九</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-15 19:31</t>
+          <t>12-18 15:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603596,1260328297.html</t>
+          <t>/news,603596,1261086687.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华西证券给予伯特利买入评级 再施员工持股计划绑定人才加速发展</t>
+          <t>伯特利本周沪股通持股市值减少3217.83万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-15 09:26</t>
+          <t>12-18 14:14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603596,1259959887.html</t>
+          <t>/news,603596,1261081820.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
+          <t>伯特利12月16日被沪股通减持29.89万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-15 09:23</t>
+          <t>12-17 07:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603596,1259952281.html</t>
+          <t>/news,603596,1260975900.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伯特利12月14日获沪股通增持13.6万股</t>
+          <t>伯特利：融资净买入989.95万元，融资余额8891.91万元（12-16）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-15 07:55</t>
+          <t>12-17 07:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603596,1259934484.html</t>
+          <t>/news,603596,1260974134.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计853.07万元（12-14）</t>
+          <t>华西证券给予伯特利买入评级，再施员工持股计</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-15 07:42</t>
+          <t>12-16 10:01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603596,1259931738.html</t>
+          <t>/news,603596,1260562156.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>注意！伯特利将于12月30日召开股东大会</t>
+          <t>伯特利12月15日获沪股通增持36.8万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-14 21:05</t>
+          <t>12-16 07:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603596,1259798928.html</t>
+          <t>/news,603596,1260477166.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>伯特利12月13日被沪股通减持40.86万股</t>
+          <t>伯特利：融资净偿还937.39万元，融资余额7901.97万元（12-15）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-14 07:58</t>
+          <t>12-16 07:35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603596,1259348270.html</t>
+          <t>/news,603596,1260474595.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>692</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计784.56万元（12-13）</t>
+          <t>西南证券给予伯特利买入评级 目标价格为105.4元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-14 07:44</t>
+          <t>12-15 19:31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603596,1259345874.html</t>
+          <t>/news,603596,1260328297.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伯特利12月12日被沪股通减持20.54万股</t>
+          <t>华西证券给予伯特利买入评级 再施员工持股计划绑定人才加速发展</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-13 07:51</t>
+          <t>12-15 09:26</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603596,1258761363.html</t>
+          <t>/news,603596,1259959887.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入94.8万元，融资余额8116.83万元（12-12）</t>
+          <t>华西证券维持伯特利买入评级 预计2022年净利润同比增长42.91%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-13 07:40</t>
+          <t>12-15 09:23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603596,1258759698.html</t>
+          <t>/news,603596,1259952281.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入937.65万元，居汽车零部件板块第十三</t>
+          <t>伯特利12月14日获沪股通增持13.6万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-11 15:09</t>
+          <t>12-15 07:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603596,1258090359.html</t>
+          <t>/news,603596,1259934484.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加4759.19万元，居汽车零部件板块第二</t>
+          <t>伯特利：连续4日融资净买入累计853.07万元（12-14）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-15 07:42</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603596,1258081516.html</t>
+          <t>/news,603596,1259931738.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伯特利12月09日获沪股通增持1.58万股</t>
+          <t>注意！伯特利将于12月30日召开股东大会</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-10 08:01</t>
+          <t>12-14 21:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603596,1257966785.html</t>
+          <t>/news,603596,1259798928.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入50.45万元，融资余额8022.03万元（12-09）</t>
+          <t>伯特利12月13日被沪股通减持40.86万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-10 07:43</t>
+          <t>12-14 07:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603596,1257963664.html</t>
+          <t>/news,603596,1259348270.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伯特利12月08日被沪股通减持19.81万股</t>
+          <t>伯特利：连续3日融资净买入累计784.56万元（12-13）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-09 07:53</t>
+          <t>12-14 07:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603596,1257394072.html</t>
+          <t>/news,603596,1259345874.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还7.2万元，融资余额7971.58万元（12-08）</t>
+          <t>伯特利12月12日被沪股通减持20.54万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-09 07:38</t>
+          <t>12-13 07:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603596,1257390817.html</t>
+          <t>/news,603596,1258761363.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伯特利12月07日获沪股通增持9.84万股</t>
+          <t>伯特利：融资净买入94.8万元，融资余额8116.83万元（12-12）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-08 07:45</t>
+          <t>12-13 07:40</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603596,1256755089.html</t>
+          <t>/news,603596,1258759698.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,61 +1299,61 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还201.05万元，融资余额7978.78万元（12-07）</t>
+          <t>伯特利本周融资净买入937.65万元，居汽车零部件板块第十三</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-08 07:38</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603596,1256753572.html</t>
+          <t>/news,603596,1258090359.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伯特利12月06日被沪股通减持5.74万股</t>
+          <t>伯特利本周沪股通持股市值增加4759.19万元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-07 07:56</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603596,1256092315.html</t>
+          <t>/news,603596,1258081516.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
+          <t>伯特利12月09日获沪股通增持1.58万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-07 07:38</t>
+          <t>12-10 08:01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603596,1256089159.html</t>
+          <t>/news,603596,1257966785.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伯特利12月05日获沪股通增持73.58万股</t>
+          <t>伯特利：融资净买入50.45万元，融资余额8022.03万元（12-09）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-06 07:52</t>
+          <t>12-10 07:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603596,1255448508.html</t>
+          <t>/news,603596,1257963664.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
+          <t>伯特利12月08日被沪股通减持19.81万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,83 +1437,83 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-06 07:38</t>
+          <t>12-09 07:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603596,1255445822.html</t>
+          <t>/news,603596,1257394072.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
+          <t>伯特利：融资净偿还7.2万元，融资余额7971.58万元（12-08）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-09 07:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603596,1254650595.html</t>
+          <t>/news,603596,1257390817.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
+          <t>伯特利12月07日获沪股通增持9.84万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-08 07:45</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603596,1254643679.html</t>
+          <t>/news,603596,1256755089.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>伯特利12月02日获沪股通增持19.39万股</t>
+          <t>伯特利：融资净偿还201.05万元，融资余额7978.78万元（12-07）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-03 07:46</t>
+          <t>12-08 07:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603596,1254511494.html</t>
+          <t>/news,603596,1256753572.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
+          <t>伯特利12月06日被沪股通减持5.74万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-03 07:41</t>
+          <t>12-07 07:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603596,1254510898.html</t>
+          <t>/news,603596,1256092315.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>伯特利12月01日获沪股通增持24.23万股</t>
+          <t>伯特利：融资净买入301.47万元，融资余额8179.83万元（12-06）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-02 07:52</t>
+          <t>12-07 07:38</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603596,1253913743.html</t>
+          <t>/news,603596,1256089159.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
+          <t>伯特利12月05日获沪股通增持73.58万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-02 07:34</t>
+          <t>12-06 07:52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603596,1253910654.html</t>
+          <t>/news,603596,1255448508.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>伯特利11月30日被沪股通减持3.51万股</t>
+          <t>伯特利：融资净买入793.99万元，融资余额7878.36万元（12-05）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,83 +1661,83 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-06 07:38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603596,1253302790.html</t>
+          <t>/news,603596,1255445822.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
+          <t>伯特利本周融资净偿还1543.55万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-01 07:36</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603596,1253299007.html</t>
+          <t>/news,603596,1254650595.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伯特利11月29日被沪股通减持13.04万股</t>
+          <t>伯特利本周被沪股通减持1.88万股 最新持股量685.59万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603596,1252779085.html</t>
+          <t>/news,603596,1254643679.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
+          <t>伯特利12月02日获沪股通增持19.39万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-30 07:37</t>
+          <t>12-03 07:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603596,1252775894.html</t>
+          <t>/news,603596,1254511494.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伯特利11月28日被沪股通减持28.96万股</t>
+          <t>伯特利：融资净偿还981.09万元，融资余额7084.37万元（12-02）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-29 07:49</t>
+          <t>12-03 07:41</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603596,1252212776.html</t>
+          <t>/news,603596,1254510898.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
+          <t>伯特利12月01日获沪股通增持24.23万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>12-02 07:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603596,1252211863.html</t>
+          <t>/news,603596,1253913743.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
+          <t>伯特利：融资净买入83.19万元，融资余额8065.46万元（12-01）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-27 15:07</t>
+          <t>12-02 07:34</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603596,1251590240.html</t>
+          <t>/news,603596,1253910654.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
+          <t>伯特利11月30日被沪股通减持3.51万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603596,1251584514.html</t>
+          <t>/news,603596,1253302790.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伯特利11月25日获沪股通增持31.76万股</t>
+          <t>伯特利：融资净偿还876.07万元，融资余额7982.27万元（11-30）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-26 07:58</t>
+          <t>12-01 07:36</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603596,1251435236.html</t>
+          <t>/news,603596,1253299007.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
+          <t>伯特利11月29日被沪股通减持13.04万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603596,1251431275.html</t>
+          <t>/news,603596,1252779085.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伯特利11月24日获沪股通增持9.93万股</t>
+          <t>伯特利：融资净买入366.45万元，融资余额8858.34万元（11-29）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-30 07:37</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603596,1250943652.html</t>
+          <t>/news,603596,1252775894.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
+          <t>伯特利11月28日被沪股通减持28.96万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-29 07:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603596,1250942859.html</t>
+          <t>/news,603596,1252212776.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伯特利11月23日被沪股通减持7.35万股</t>
+          <t>伯特利：连续3日融资净偿还累计879.41万元（11-28）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603596,1250420265.html</t>
+          <t>/news,603596,1252211863.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
+          <t>伯特利本周融资净买入1312.56万元，居汽车零部件板块第十一</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-24 07:38</t>
+          <t>11-27 15:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603596,1250417518.html</t>
+          <t>/news,603596,1251590240.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伯特利11月22日被沪股通减持60.02万股</t>
+          <t>伯特利本周沪股通持股市值减少2373.44万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603596,1249875772.html</t>
+          <t>/news,603596,1251584514.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
+          <t>伯特利11月25日获沪股通增持31.76万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-26 07:58</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603596,1249873035.html</t>
+          <t>/news,603596,1251435236.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
+          <t>伯特利：融资净偿还58.38万元，融资余额8635.81万元（11-25）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-22 18:38</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603596,1249737391.html</t>
+          <t>/news,603596,1251431275.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伯特利11月21日被沪股通减持3.05万股</t>
+          <t>伯特利11月24日获沪股通增持9.93万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603596,1249349789.html</t>
+          <t>/news,603596,1250943652.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
+          <t>伯特利：融资净偿还685万元，融资余额8694.19万元（11-24）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,83 +2237,83 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-22 07:56</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603596,1249349421.html</t>
+          <t>/news,603596,1250942859.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
+          <t>伯特利11月23日被沪股通减持7.35万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603596,1248770887.html</t>
+          <t>/news,603596,1250420265.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
+          <t>伯特利：融资净买入616.55万元，融资余额9379.19万元（11-23）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-20 14:15</t>
+          <t>11-24 07:38</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603596,1248764253.html</t>
+          <t>/news,603596,1250417518.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>伯特利11月18日获沪股通增持27.99万股</t>
+          <t>伯特利11月22日被沪股通减持60.02万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603596,1248639213.html</t>
+          <t>/news,603596,1249875772.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
+          <t>伯特利：融资净偿还457.3万元，融资余额8762.64万元（11-22）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603596,1248636286.html</t>
+          <t>/news,603596,1249873035.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>924</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>伯特利11月17日获沪股通增持36.4万股</t>
+          <t>伯特利：股东熊立武于2022年8月25日至2022年11月22日期间减持公司股份10万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-18 07:53</t>
+          <t>11-22 18:38</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603596,1248153946.html</t>
+          <t>/news,603596,1249737391.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
+          <t>伯特利11月21日被沪股通减持3.05万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603596,1248151796.html</t>
+          <t>/news,603596,1249349789.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
+          <t>伯特利：连续4日融资净买入累计5264.84万元（11-21）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-17 07:56</t>
+          <t>11-22 07:56</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603596,1247668696.html</t>
+          <t>/news,603596,1249349421.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>伯特利11月16日获沪股通增持25.12万股</t>
+          <t>伯特利本周融资净买入3900.91万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603596,1247665452.html</t>
+          <t>/news,603596,1248770887.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伯特利11月15日被沪股通减持13.35万股</t>
+          <t>伯特利本周沪股通持股市值增加1.05亿元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-16 07:47</t>
+          <t>11-20 14:15</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603596,1247175007.html</t>
+          <t>/news,603596,1248764253.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
+          <t>伯特利11月18日获沪股通增持27.99万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-16 07:36</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603596,1247173160.html</t>
+          <t>/news,603596,1248639213.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伯特利11月14日获沪股通增持48.67万股</t>
+          <t>伯特利：连续3日融资净买入累计3368.14万元（11-18）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603596,1246690021.html</t>
+          <t>/news,603596,1248636286.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
+          <t>伯特利11月17日获沪股通增持36.4万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-15 07:42</t>
+          <t>11-18 07:53</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603596,1246688781.html</t>
+          <t>/news,603596,1248153946.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
+          <t>伯特利：融资余额环比增加42.78%，增幅两市第13（11-17）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603596,1246100499.html</t>
+          <t>/news,603596,1248151796.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
+          <t>伯特利：融资净买入404.43万元，融资余额4359.53万元（11-16）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>伯特利资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-17 07:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603596,1246093896.html</t>
+          <t>/news,603596,1247668696.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伯特利11月11日获沪股通增持11.09万股</t>
+          <t>伯特利11月16日获沪股通增持25.12万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-12 07:58</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603596,1245987913.html</t>
+          <t>/news,603596,1247665452.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
+          <t>伯特利11月15日被沪股通减持13.35万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-16 07:47</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603596,1245987424.html</t>
+          <t>/news,603596,1247175007.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>伯特利11月10日获沪股通增持33.64万股</t>
+          <t>伯特利：融资净偿还141.98万元，融资余额3955.1万元（11-15）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-16 07:36</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603596,1245414665.html</t>
+          <t>/news,603596,1247173160.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伯特利：融资净买入22.46万元，融资余额3200.34万元（11-10）</t>
+          <t>伯特利11月14日获沪股通增持48.67万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-11 07:43</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603596,1245411440.html</t>
+          <t>/news,603596,1246690021.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伯特利：WCBS 2.0预计2024年上半年量产</t>
+          <t>伯特利：连续4日融资净买入累计1069.02万元（11-14）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-15 07:42</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603596,1245411132.html</t>
+          <t>/news,603596,1246688781.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,61 +2867,61 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伯特利：目前WCBS 2.0开发进展顺利 预计明年上半年开发完成并进行WCBS 2.0产线建设</t>
+          <t>融资融券周汇总：伯特利本周融资净买入761.52万元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-10 17:27</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603596,1245267686.html</t>
+          <t>/news,603596,1246100499.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>伯特利：墨西哥工厂将于2023年上半年投产</t>
+          <t>伯特利本周沪股通持股市值增加6743.5万元，居汽车零部件板块第六</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>伯特利资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-10 17:09</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603596,1245263435.html</t>
+          <t>/news,603596,1246093896.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伯特利：公司电动尾门暂时还没有量产项目 预计2023年一季度将会有项目量产</t>
+          <t>伯特利11月11日获沪股通增持11.09万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-12 07:58</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603596,1245245336.html</t>
+          <t>/news,603596,1245987913.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伯特利：公司的线控制动产品既可以应用在新能源汽车 也可以应用于传统燃油车上</t>
+          <t>伯特利：连续3日融资净买入累计394.28万元（11-11）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-10 16:02</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603596,1245245328.html</t>
+          <t>/news,603596,1245987424.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伯特利11月09日获沪股通增持16.32万股</t>
+          <t>伯特利11月10日获沪股通增持33.64万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603596,1244892210.html</t>
+          <t>/news,603596,1245414665.html</t>
         </is>
       </c>
     </row>
